--- a/tools/autofill/data/autofill.xlsx
+++ b/tools/autofill/data/autofill.xlsx
@@ -465,15 +465,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","798458096","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","845371221","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0871321413","82vn.com/",1,
+r7,0,"^userNumber$","809736430","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0117591753","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","871839091","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0871321413","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0235593869","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","782711867","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -525,15 +525,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","979501005","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","597061205","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0725138913","82vn.com/",1,
+r7,0,"^userNumber$","954300234","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0694081662","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","892001031","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0725138913","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0929928593","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","365478461","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -585,15 +585,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","112358334","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","461677394","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0789134179","82vn.com/",1,
+r7,0,"^userNumber$","425377978","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0396656673","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","137687229","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0789134179","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0104215811","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","226606731","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -645,15 +645,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","979501006","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","532766879","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0891319014","82vn.com/",1,
+r7,0,"^userNumber$","903247907","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0556319435","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","337272762","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0891319014","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0522176386","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","924076637","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -705,15 +705,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","275784798","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","985935647","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0481411901","82vn.com/",1,
+r7,0,"^userNumber$","537173139","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0362517916","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","208645139","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0481411901","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0469569217","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","567639926","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -765,15 +765,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","839194432","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","731506760","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0897184131","82vn.com/",1,
+r7,0,"^userNumber$","230388462","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0517457414","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","143524507","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0897184131","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0295717414","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","398301267","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -825,15 +825,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","837663550","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","150855007","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0781910401","82vn.com/",1,
+r7,0,"^userNumber$","272031396","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0685122222","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","308898128","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0781910401","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0189533836","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","780188926","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -885,15 +885,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","979501008","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","885792353","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0986183138","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","183874444","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0986183138","66club.com/",1,
+r7,0,"^userNumber$","903754263","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0652386083","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","809736430","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0354631410","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","585206157","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -945,15 +945,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","216114250","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","463139193","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0897190091","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","792334555","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0897190091","66club.com/",1,
+r7,0,"^userNumber$","440437680","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0846586981","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","954300234","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0105872579","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","759971790","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1005,15 +1005,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","979501009","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","848123808","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0791091381","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","996490849","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0791091381","66club.com/",1,
+r7,0,"^userNumber$","419909334","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0384186842","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","425377978","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0348667817","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","812455599","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1065,15 +1065,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","839113412","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","273059424","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0781910308","82vn.com/",1,
+r7,0,"^userNumber$","424787253","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0455132253","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","306004510","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0781910308","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0379448634","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","904185574","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1125,15 +1125,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","979501010","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","721543458","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0813901953","82vn.com/",1,
+r7,0,"^userNumber$","596218698","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0868497407","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","740816677","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0813901953","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0490956729","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","601919909","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1185,15 +1185,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","911090044","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","486860555","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0581901701","82vn.com/",1,
+r7,0,"^userNumber$","721300290","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0431356801","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","322496459","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0581901701","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0277884563","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","574735701","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1245,15 +1245,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","741989372","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","850790379","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0681073841","82vn.com/",1,
+r7,0,"^userNumber$","792821335","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0590537338","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","435743393","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0681073841","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0819146858","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","653536598","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1305,15 +1305,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","272567880","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","130628164","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0518057131","82vn.com/",1,
+r7,0,"^userNumber$","503194580","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0239414256","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","772048392","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0518057131","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0155594046","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","684377483","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1368,12 +1368,12 @@
 r7,0,"^userNumber$","671727182","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0789133121","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0483033542","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","561285604","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0789133121","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0862874795","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","879171690","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1428,12 +1428,12 @@
 r7,0,"^userNumber$","839131939","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0748192013","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0621674530","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","847969164","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0748192013","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0316362871","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","899768580","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1485,15 +1485,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","979501371","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","381491019","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0284901842","82vn.com/",1,
+r7,0,"^userNumber$","869791353","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0359318067","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","161093341","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0284901842","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0190254456","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","621404237","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1548,12 +1548,12 @@
 r7,0,"^userNumber$","391039193","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0689103794","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","980426154","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0689103794","66club.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0684834963","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","903247907","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0523861988","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","710991587","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1608,12 +1608,12 @@
 r7,0,"^userNumber$","819374617","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0781931341","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0266177391","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","325307077","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0781931341","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0926998576","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","757525586","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1665,15 +1665,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","343122431","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","438292198","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0472914784","82vn.com/",1,
+r7,0,"^userNumber$","432578596","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0651270446","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","625277426","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0472914784","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0885890347","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","349768089","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1725,15 +1725,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","329438614","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","836194195","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0687281930","82vn.com/",1,
+r7,0,"^userNumber$","290552570","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0225645943","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","482104981","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0687281930","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0250506310","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","397087826","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1788,12 +1788,12 @@
 r7,0,"^userNumber$","274868121","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0789147128","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0785323397","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","662582367","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0789147128","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0583089981","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","782788145","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1848,12 +1848,12 @@
 r7,0,"^userNumber$","456548104","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0531749012","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0497781366","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","508647800","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0531749012","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0735995605","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","921145181","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1908,12 +1908,12 @@
 r7,0,"^userNumber$","377107198","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0863713819","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0597771870","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","301018585","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0863713819","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0405724680","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","741225885","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -1968,12 +1968,12 @@
 r7,0,"^userNumber$","286292786","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0680103475","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0159793400","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","923694809","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0680103475","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0177309080","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","359826257","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2028,12 +2028,12 @@
 r7,0,"^userNumber$","781728418","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0472812281","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0770963545","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","513119017","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0472812281","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0855312784","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","410213391","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2088,12 +2088,12 @@
 r7,0,"^userNumber$","331595321","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0748182911","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0565753913","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","760388304","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0748182911","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0877728411","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","384011721","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2145,15 +2145,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","597622011","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","429172491","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0467281831","82vn.com/",1,
+r7,0,"^userNumber$","209843719","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0582936414","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","814532208","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0467281831","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0427953560","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","342181726","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2205,15 +2205,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","534230098","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","195559353","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0461821940","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","821370543","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0461821940","66club.com/",1,
+r7,0,"^userNumber$","965503372","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0355530233","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","537173139","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0138901913","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","227338214","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2268,12 +2268,12 @@
 r7,0,"^userNumber$","471486505","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0478192512","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0983795614","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","642443167","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0478192512","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0528655147","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","783913421","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2325,15 +2325,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","710183474","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","144868598","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0783123901","82vn.com/",1,
+r7,0,"^userNumber$","756102322","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0921034802","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","123886425","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0783123901","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0303297455","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","761234112","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2388,12 +2388,12 @@
 r7,0,"^userNumber$","250799047","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0478291028","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0281439082","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","578990063","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0478291028","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0940487207","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","947082045","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2445,15 +2445,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","337297299","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","383075854","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0738137381","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","480213467","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0738137381","66club.com/",1,
+r7,0,"^userNumber$","135324831","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0314629440","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","230388462","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0688473410","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","939273534","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2505,15 +2505,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","993155349","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","848604404","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0738183913","82vn.com/",1,
+r7,0,"^userNumber$","900920365","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0474511201","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","579423567","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0738183913","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0247634535","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","759192587","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2568,12 +2568,12 @@
 r7,0,"^userNumber$","502399288","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0782134851","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0770262210","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","503583941","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0782134851","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0902509846","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","754038968","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2628,12 +2628,12 @@
 r7,0,"^userNumber$","551838120","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0379134131","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0267971527","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","613053178","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0379134131","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0960174946","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","863707695","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2688,12 +2688,12 @@
 r7,0,"^userNumber$","712234523","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0738139410","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0143796442","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","458008635","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0738139410","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0938323135","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","932488376","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2748,12 +2748,12 @@
 r7,0,"^userNumber$","127587317","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0382913413","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0152317842","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","479975346","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0382913413","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0922458782","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","782711081","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2808,12 +2808,12 @@
 r7,0,"^userNumber$","829190998","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0382950313","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0186714892","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","680331212","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0382950313","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0201020412","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","991126532","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2865,15 +2865,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","622118911","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","531911350","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0738294995","82vn.com/",1,
+r7,0,"^userNumber$","169673842","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0288834610","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","596257214","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0738294995","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0882210611","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","980910300","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2925,15 +2925,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","235593869","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","143821586","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0839253830","82vn.com/",1,
+r7,0,"^userNumber$","321484254","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0293649777","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","291547648","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0839253830","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0844222220","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","817269569","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -2988,12 +2988,12 @@
 r7,0,"^userNumber$","312326308","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0830093481","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","731146715","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0830093481","66club.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0668338209","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","272031396","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0518845369","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","858472109","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3045,15 +3045,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","104215811","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","428510639","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0382940028","82vn.com/",1,
+r7,0,"^userNumber$","521441770","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0869590704","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","917998200","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0382940028","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0347238570","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","985661097","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3108,12 +3108,12 @@
 r7,0,"^userNumber$","391257125","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0384928312","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0683963355","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","616970415","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0384928312","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0155996135","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","785313605","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3168,12 +3168,12 @@
 r7,0,"^userNumber$","530499292","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0839241232","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0754971113","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","374470052","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0839241232","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0900537671","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","897770963","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3225,15 +3225,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","295717414","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","324083499","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0382947590","82vn.com/",1,
+r7,0,"^userNumber$","924901639","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0144333790","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","136581730","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0382947590","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0732954968","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","952501373","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3285,15 +3285,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","189533836","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","506712593","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0273849241","82vn.com/",1,
+r7,0,"^userNumber$","494242786","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0914496293","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","705668727","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0273849241","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0829067929","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","987766237","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3345,15 +3345,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","354631410","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","986858384","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0378493031","82vn.com/",1,
+r7,0,"^userNumber$","237599623","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0130635013","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","541017199","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0378493031","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0564761171","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","921934242","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3408,12 +3408,12 @@
 r7,0,"^userNumber$","808637876","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0378931341","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0207477740","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","584438695","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0378931341","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0345220025","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","975133413","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3465,15 +3465,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","348667817","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","733593696","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0975133413","82vn.com/",1,
+r7,0,"^userNumber$","785486960","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0484409900","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","717923446","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0975133413","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0652223685","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","728311940","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3528,12 +3528,12 @@
 r7,0,"^userNumber$","502272822","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0738211374","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0118612301","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","837899158","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0738211374","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0910642583","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","782933018","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3588,12 +3588,12 @@
 r7,0,"^userNumber$","208857445","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0789131462","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0742090677","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","609583079","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0789131462","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0496490560","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","782911845","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3648,12 +3648,12 @@
 r7,0,"^userNumber$","976955935","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0278391080","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0457515750","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","814727375","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0278391080","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0100414233","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","742124638","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3708,12 +3708,12 @@
 r7,0,"^userNumber$","559875271","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0748314148","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","135472659","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0748314148","66club.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0216561031","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","903754263","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0952194757","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","780098452","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3765,15 +3765,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","155594046","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","638440143","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0829311389","82vn.com/",1,
+r7,0,"^userNumber$","922563316","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0643477873","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","732060482","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0829311389","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0507446928","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","736472836","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3828,12 +3828,12 @@
 r7,0,"^userNumber$","184381091","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0839289090","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0332946497","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","143693936","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0839289090","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0807090642","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","782011321","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3888,12 +3888,12 @@
 r7,0,"^userNumber$","679379146","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0873616373","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0592218823","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","242468983","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0873616373","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0229238879","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","247974929","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -3945,15 +3945,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","190254456","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","977681997","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0784938408","82vn.com/",1,
+r7,0,"^userNumber$","696270312","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0381227771","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","653248752","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0784938408","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0681891647","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","724547260","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4008,12 +4008,12 @@
 r7,0,"^userNumber$","894083744","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0873909091","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0185595540","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","632275752","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0873909091","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0117591753","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","729001040","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4065,15 +4065,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","926998576","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","531350923","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0782933804","82vn.com/",1,
+r7,0,"^userNumber$","891488292","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0247471852","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","537274898","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0782933804","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0694081662","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","782933804","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4125,15 +4125,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","885890347","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","554145447","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0783911709","82vn.com/",1,
+r7,0,"^userNumber$","203245311","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0396600487","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","113887223","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0783911709","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0396656673","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","783911709","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4188,12 +4188,12 @@
 r7,0,"^userNumber$","627091702","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0792733131","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0137681995","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","176063268","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0792733131","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0556319435","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","792733131","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4245,15 +4245,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","583089981","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","112491687","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0738198423","82vn.com/",1,
+r7,0,"^userNumber$","233724987","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0937869234","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","880530594","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0738198423","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0362517916","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","738198423","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4308,12 +4308,12 @@
 r7,0,"^userNumber$","139194217","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0189384908","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","687770318","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0189384908","66club.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0647680330","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","440437680","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0517457414","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","189384908","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4365,15 +4365,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","405724680","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","661358030","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0368490283","82vn.com/",1,
+r7,0,"^userNumber$","864711163","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0171193774","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","896058454","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0368490283","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0685122222","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","368490283","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4425,15 +4425,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","177309080","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","542510727","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0478390183","82vn.com/",1,
+r7,0,"^userNumber$","535540735","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0718259365","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","192899035","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0478390183","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0652386083","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","478390183","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4488,12 +4488,12 @@
 r7,0,"^userNumber$","631935688","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0758492380","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0674368142","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","330198652","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0758492380","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0846586981","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","758492380","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4548,12 +4548,12 @@
 r7,0,"^userNumber$","679932626","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0371839403","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","644501642","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0371839403","66club.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0686824342","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","419909334","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0738177391","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","371839403","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4605,15 +4605,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","427953560","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","590250621","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0538018098","82vn.com/",1,
+r7,0,"^userNumber$","117585157","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0595664839","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","366992618","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0538018098","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0455132253","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","538018098","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4665,15 +4665,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","138901913","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","181048041","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0837381738","82vn.com/",1,
+r7,0,"^userNumber$","758416237","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0347436227","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","634843941","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0837381738","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0868497407","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","837381738","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4725,15 +4725,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","528655147","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","291436971","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0373849183","82vn.com/",1,
+r7,0,"^userNumber$","150663173","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0257054600","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","149526376","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0373849183","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0431356801","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","373849183","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4785,15 +4785,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","303297455","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","585244902","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0183948048","82vn.com/",1,
+r7,0,"^userNumber$","344417848","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0550308970","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","121629903","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0183948048","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0590537338","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","183948048","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4848,12 +4848,12 @@
 r7,0,"^userNumber$","275380193","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0189097493","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0597194832","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","297340312","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0189097493","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0239414256","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","189097493","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4908,12 +4908,12 @@
 r7,0,"^userNumber$","965107947","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0391038394","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0757505685","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","693379455","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0391038394","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0483033542","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","391038394","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -4965,15 +4965,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","247634535","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","940340937","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0180909389","82vn.com/",1,
+r7,0,"^userNumber$","796850515","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0523704563","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","302595916","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0180909389","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0621674530","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","180909389","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5028,12 +5028,12 @@
 r7,0,"^userNumber$","118327918","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0684927123","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0374685402","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","290225616","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0684927123","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0359318067","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","684927123","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5088,12 +5088,12 @@
 r7,0,"^userNumber$","451136429","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0183018374","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0634681778","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","612673926","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0183018374","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0684834963","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","183018374","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5148,12 +5148,12 @@
 r7,0,"^userNumber$","605613127","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0888193731","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0641808817","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","445242029","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0888193731","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0266177391","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","888193731","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5205,15 +5205,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","922458782","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","216593019","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0891831371","82vn.com/",1,
+r7,0,"^userNumber$","516848848","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0204617012","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","430579691","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0891831371","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0651270446","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","891831371","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5268,12 +5268,12 @@
 r7,0,"^userNumber$","645943994","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0837491031","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0445141745","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","446339965","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0837491031","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0225645943","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","837491031","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5325,15 +5325,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","882210611","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","824130532","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0381938493","82vn.com/",1,
+r7,0,"^userNumber$","482046054","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0734292596","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","494285315","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0381938493","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0785323397","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","381938493","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5388,12 +5388,12 @@
 r7,0,"^userNumber$","684943253","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0391018301","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0567900565","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","999450198","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0391018301","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0497781366","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","391018301","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5448,12 +5448,12 @@
 r7,0,"^userNumber$","467115569","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0301839183","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0342966136","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","584881448","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0301839183","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0597771870","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","301839183","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5505,15 +5505,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","347238570","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","498159391","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0183941931","82vn.com/",1,
+r7,0,"^userNumber$","644857262","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0267221863","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","829715981","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0183941931","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0159793400","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","183941931","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5568,12 +5568,12 @@
 r7,0,"^userNumber$","443199830","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0938137431","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","466039381","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0938137431","66club.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0119708889","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","424787253","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0770963545","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","938137431","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5625,15 +5625,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","900537671","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","663570410","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0383401384","82vn.com/",1,
+r7,0,"^userNumber$","257514777","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0860008975","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","552167703","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0383401384","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0565753913","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","383401384","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5685,15 +5685,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","732954968","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","375525234","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0383949134","82vn.com/",1,
+r7,0,"^userNumber$","632614346","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0770906492","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","867796157","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0383949134","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0582936414","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","383949134","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5745,15 +5745,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","829067929","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","113175565","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0843743637","82vn.com/",1,
+r7,0,"^userNumber$","951756353","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0442703288","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","776246671","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0843743637","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0355530233","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","843743637","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5808,12 +5808,12 @@
 r7,0,"^userNumber$","619160265","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0383410903","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0593777129","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","621438891","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0383410903","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0983795614","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","383410903","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5868,12 +5868,12 @@
 r7,0,"^userNumber$","298156980","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0493098004","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0530458952","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","122953707","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0493098004","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0921034802","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","493098004","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5925,15 +5925,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","652223685","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","470937923","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0383841312","82vn.com/",1,
+r7,0,"^userNumber$","626552933","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0965243129","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","441195814","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0383841312","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0281439082","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","383841312","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -5988,12 +5988,12 @@
 r7,0,"^userNumber$","280105855","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0383918391","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0530434386","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","609412968","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0383918391","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0314629440","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","383918391","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6048,12 +6048,12 @@
 r7,0,"^userNumber$","535501346","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0537841341","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0502754103","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","637918516","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0537841341","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0474511201","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","537841341","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6108,12 +6108,12 @@
 r7,0,"^userNumber$","754889022","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0898987840","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0160044580","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","368821102","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0898987840","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0770262210","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","898987840","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6168,12 +6168,12 @@
 r7,0,"^userNumber$","772336937","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0398090473","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","520405465","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0398090473","66club.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0405957591","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","596218698","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0267971527","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","398090473","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6228,12 +6228,12 @@
 r7,0,"^userNumber$","769112376","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0381927482","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0907131640","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","291058185","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0381927482","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0143796442","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","381927482","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6288,12 +6288,12 @@
 r7,0,"^userNumber$","285836477","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0463738183","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0594372056","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","597307526","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0463738183","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0152317842","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","463738183","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6348,12 +6348,12 @@
 r7,0,"^userNumber$","692269018","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0374837123","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0475423584","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","671432104","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0374837123","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0186714892","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","374837123","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6408,12 +6408,12 @@
 r7,0,"^userNumber$","931487388","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0473813743","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0832582346","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","359220239","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0473813743","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0288834610","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","473813743","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6468,12 +6468,12 @@
 r7,0,"^userNumber$","698214634","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0754649328","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0171783928","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","865508474","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0754649328","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0293649777","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","865508474","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6528,12 +6528,12 @@
 r7,0,"^userNumber$","140761526","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0979501005","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0255428375","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","420482191","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0979501005","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0668338209","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","420482191","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6585,15 +6585,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","404850696","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","605821700","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0112358334","82vn.com/",1,
+r7,0,"^userNumber$","813492746","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0580809466","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","302615346","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0112358334","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0869590704","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","302615346","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6648,12 +6648,12 @@
 r7,0,"^userNumber$","595886554","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0979501006","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0981783981","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","782885390","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0979501006","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0683963355","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","782885390","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6705,15 +6705,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","555417503","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","407087327","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0275784798","82vn.com/",1,
+r7,0,"^userNumber$","304672231","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0304845735","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","206040091","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0275784798","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0754971113","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","206040091","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6765,15 +6765,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","170770127","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","830281509","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0979501007","82vn.com/",1,
+r7,0,"^userNumber$","999768632","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0705749319","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","992505332","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0979501007","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0144333790","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","992505332","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6828,12 +6828,12 @@
 r7,0,"^userNumber$","773172809","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0837663550","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0704882865","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","907267945","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0837663550","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0914496293","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","907267945","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6885,15 +6885,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","609362502","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","766191316","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0979501008","82vn.com/",1,
+r7,0,"^userNumber$","141773592","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0383439203","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","865121905","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0979501008","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0130635013","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","865121905","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -6945,15 +6945,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","886344845","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","279172500","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0216114250","82vn.com/",1,
+r7,0,"^userNumber$","782042484","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0710935132","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","175118345","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0216114250","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0207477740","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","175118345","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7008,12 +7008,12 @@
 r7,0,"^userNumber$","861472544","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0979501009","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0510968487","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","792686354","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0979501009","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0484409900","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","792686354","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7065,15 +7065,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","582523777","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","322857361","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0295095995","82vn.com/",1,
+r7,0,"^userNumber$","313729126","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0366377492","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","128062619","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0295095995","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0118612301","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","128062619","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7128,12 +7128,12 @@
 r7,0,"^userNumber$","781071091","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0979501010","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0147522631","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","883919301","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0979501010","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0742090677","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","609412968","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7188,12 +7188,12 @@
 r7,0,"^userNumber$","874437680","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0911090044","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0330177088","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","425107310","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0911090044","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0457515750","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","425107310","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7245,15 +7245,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","183030648","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","485663586","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0741989372","82vn.com/",1,
+r7,0,"^userNumber$","191076271","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0701039325","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","651868910","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0741989372","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0216561031","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","651868910","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7305,15 +7305,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","150344554","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","829553401","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0272567880","82vn.com/",1,
+r7,0,"^userNumber$","528643656","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0265442907","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","538322932","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0272567880","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0643477873","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","538322932","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7368,12 +7368,12 @@
 r7,0,"^userNumber$","448718717","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0979501638","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0501381851","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","471092781","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0979501638","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0332946497","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","359220239","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7428,12 +7428,12 @@
 r7,0,"^userNumber$","683896641","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0208372021","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0865310787","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","306260926","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0208372021","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0592218823","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","306260926","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7488,12 +7488,12 @@
 r7,0,"^userNumber$","996263657","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0979501371","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0289213592","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","666888665","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0979501371","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0381227771","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","666888665","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7545,15 +7545,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","453105691","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","745556034","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0908535348","82vn.com/",1,
+r7,0,"^userNumber$","249279129","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0972642698","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","401331391","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0908535348","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0185595540","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","401331391","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7608,12 +7608,12 @@
 r7,0,"^userNumber$","313870542","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0248887691","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0914232752","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","580513131","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0248887691","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0247471852","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","580513131","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7668,12 +7668,12 @@
 r7,0,"^userNumber$","126905109","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0889703880","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0950326257","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","278258138","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0889703880","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0396600487","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","278258138","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7728,12 +7728,12 @@
 r7,0,"^userNumber$","132977387","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0329438614","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0299586209","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","395668497","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0329438614","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0137681995","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","395668497","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7788,12 +7788,12 @@
 r7,0,"^userNumber$","913201728","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0410827710","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0502203663","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","938307900","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0410827710","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0937869234","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","938307900","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7848,12 +7848,12 @@
 r7,0,"^userNumber$","213248948","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0348627365","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0972964281","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","284668963","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0348627365","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0647680330","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","284668963","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7908,12 +7908,12 @@
 r7,0,"^userNumber$","638806391","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0904316362","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0559485294","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","291517902","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0904316362","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0171193774","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","291517902","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -7965,15 +7965,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","488682790","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","157214982","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0990077555","82vn.com/",1,
+r7,0,"^userNumber$","727532124","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0641340663","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","810555748","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0990077555","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0718259365","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","810555748","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8025,15 +8025,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","982220726","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","143404932","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0700437394","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","327679656","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0700437394","66club.com/",1,
+r7,0,"^userNumber$","322788873","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0343110954","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","721300290","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0674368142","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","327679656","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8085,15 +8085,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","704918017","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","464180969","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0242445354","82vn.com/",1,
+r7,0,"^userNumber$","192488282","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0972822051","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","859546300","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0242445354","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0686824342","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","859546300","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8148,12 +8148,12 @@
 r7,0,"^userNumber$","728619603","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0597622011","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0234227997","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","176437893","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0597622011","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0595664839","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","176437893","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8208,12 +8208,12 @@
 r7,0,"^userNumber$","647009110","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0534230098","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0870087266","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","792985840","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0534230098","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0347436227","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","792985840","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8265,15 +8265,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","614177179","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","724808479","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0967142740","82vn.com/",1,
+r7,0,"^userNumber$","632523839","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0814178523","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","879857003","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0967142740","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0257054600","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","879857003","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8325,15 +8325,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","432117602","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","584098295","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0710183474","82vn.com/",1,
+r7,0,"^userNumber$","505190728","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0680462558","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","695638973","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0710183474","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0550308970","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","695638973","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8388,12 +8388,12 @@
 r7,0,"^userNumber$","279692903","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0554750174","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0789667208","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","972158454","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0554750174","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0597194832","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","972158454","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8445,15 +8445,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","317426869","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","571036346","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0337297299","82vn.com/",1,
+r7,0,"^userNumber$","886238133","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0828942520","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","252111387","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0337297299","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0757505685","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","252111387","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8505,15 +8505,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","737491477","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","524057145","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0993155349","82vn.com/",1,
+r7,0,"^userNumber$","395790540","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0373981827","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","663828479","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0993155349","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0523704563","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","663828479","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8565,15 +8565,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","836962736","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","241574899","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0674301872","82vn.com/",1,
+r7,0,"^userNumber$","416467974","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0915238961","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","381426963","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0674301872","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0374685402","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","381426963","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8625,15 +8625,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","349784705","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","787250512","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0405012833","82vn.com/",1,
+r7,0,"^userNumber$","319564470","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0718796976","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","153954258","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0405012833","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0634681778","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","153954258","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8685,15 +8685,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","529711519","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","629291649","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0334497220","82vn.com/",1,
+r7,0,"^userNumber$","896923185","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0808699794","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","651333841","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0334497220","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0641808817","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","651333841","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8748,12 +8748,12 @@
 r7,0,"^userNumber$","605932089","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0922012758","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0420184490","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","158124317","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0922012758","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0204617012","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","158124317","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8808,12 +8808,12 @@
 r7,0,"^userNumber$","636954689","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0838484328","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0588502213","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","884708714","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0838484328","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0445141745","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","884708714","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8865,15 +8865,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","767987582","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","231102957","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0622118911","82vn.com/",1,
+r7,0,"^userNumber$","895677119","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0318964978","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","456949576","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0622118911","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0734292596","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","456949576","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8925,15 +8925,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","327318852","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","748138897","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0235593869","82vn.com/",1,
+r7,0,"^userNumber$","329890249","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0985364978","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","505467295","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0235593869","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0567900565","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","505467295","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -8985,15 +8985,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","221166262","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","598091377","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0929928593","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","944267714","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0929928593","66club.com/",1,
+r7,0,"^userNumber$","896788879","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0710882106","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","792821335","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0342966136","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","944267714","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9048,12 +9048,12 @@
 r7,0,"^userNumber$","369128388","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0104215811","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0529069833","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","734007165","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0104215811","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0267221863","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","734007165","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9108,12 +9108,12 @@
 r7,0,"^userNumber$","202796815","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0522176386","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0288248439","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","917352261","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0522176386","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0119708889","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","917352261","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9168,12 +9168,12 @@
 r7,0,"^userNumber$","545410662","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0469569217","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0928920932","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","240635312","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0469569217","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0860008975","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","240635312","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9225,15 +9225,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","500743599","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","793390685","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0295717414","82vn.com/",1,
+r7,0,"^userNumber$","564327553","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0610897930","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","410701292","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0295717414","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0770906492","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","410701292","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9285,15 +9285,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","730884844","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","286859328","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0189533836","82vn.com/",1,
+r7,0,"^userNumber$","839549360","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0139160052","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","522364576","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0189533836","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0442703288","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","522364576","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9345,15 +9345,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","883212392","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","410820402","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0354631410","82vn.com/",1,
+r7,0,"^userNumber$","147198026","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0179130839","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","712625704","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0354631410","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0593777129","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","712625704","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9405,15 +9405,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","444508671","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","536960678","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0105872579","82vn.com/",1,
+r7,0,"^userNumber$","624268691","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0151664092","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","356256709","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0105872579","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0530458952","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","356256709","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9465,15 +9465,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","921234438","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","667654185","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0348667817","82vn.com/",1,
+r7,0,"^userNumber$","982841553","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0130722813","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","518870079","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0348667817","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0965243129","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","518870079","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9525,15 +9525,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","186799261","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","403786528","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0379448634","82vn.com/",1,
+r7,0,"^userNumber$","573401145","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0557902200","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","437013375","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0379448634","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0530434386","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","437013375","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9588,12 +9588,12 @@
 r7,0,"^userNumber$","219600081","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0490956729","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0875521989","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","195882049","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0490956729","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0502754103","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","195882049","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9645,15 +9645,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","470643975","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","839578711","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0277884563","82vn.com/",1,
+r7,0,"^userNumber$","244377790","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0866712811","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","896643848","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0277884563","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0160044580","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","896643848","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9705,15 +9705,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","424206617","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","758994826","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0819146858","82vn.com/",1,
+r7,0,"^userNumber$","547391352","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0407214582","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","621582422","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0819146858","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0405957591","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","621582422","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9765,15 +9765,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","220744650","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","675852101","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0155594046","82vn.com/",1,
+r7,0,"^userNumber$","539780913","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0114568004","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","158744750","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0155594046","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0907131640","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","158744750","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9828,12 +9828,12 @@
 r7,0,"^userNumber$","215695368","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0862874795","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0510032305","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","400036822","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0862874795","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0594372056","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","400036822","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9888,12 +9888,12 @@
 r7,0,"^userNumber$","358684847","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0316362871","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0135100549","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","956533295","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0316362871","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0475423584","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","956533295","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -9945,15 +9945,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","729857090","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","484123454","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0190254456","82vn.com/",1,
+r7,0,"^userNumber$","289065849","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0317707940","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","899211552","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0190254456","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0832582346","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","899211552","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10005,15 +10005,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","663930893","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","520628772","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0523861988","82vn.com/",1,
+r7,0,"^userNumber$","234251410","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0875370797","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","334468146","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0523861988","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0171783928","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","334468146","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10068,12 +10068,12 @@
 r7,0,"^userNumber$","271163491","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0926998576","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","412454567","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0926998576","66club.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0961502427","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","503194580","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0255428375","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","412454567","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10125,15 +10125,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","931389734","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","488282519","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0885890347","82vn.com/",1,
+r7,0,"^userNumber$","827470340","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0615456159","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","255821478","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0885890347","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0580809466","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","255821478","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10188,12 +10188,12 @@
 r7,0,"^userNumber$","679759762","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0250506310","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0989497012","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","521385067","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0250506310","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0981783981","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","521385067","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10248,12 +10248,12 @@
 r7,0,"^userNumber$","510974793","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0583089981","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0359380380","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","281410719","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0583089981","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0304845735","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","281410719","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10305,15 +10305,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","563099226","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","189515587","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0735995605","82vn.com/",1,
+r7,0,"^userNumber$","834582434","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0268101666","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","113573002","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0735995605","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0705749319","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","113573002","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10368,12 +10368,12 @@
 r7,0,"^userNumber$","750823151","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0405724680","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0971420561","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","322198797","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0405724680","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0704882865","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","322198797","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10428,12 +10428,12 @@
 r7,0,"^userNumber$","675487534","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0177309080","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0842522235","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","953472072","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0177309080","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0383439203","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","953472072","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10485,15 +10485,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","534531341","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","145061726","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0855312784","82vn.com/",1,
+r7,0,"^userNumber$","180558307","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0465247351","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","881790321","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0855312784","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0710935132","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","881790321","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10548,12 +10548,12 @@
 r7,0,"^userNumber$","774026776","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0877728411","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0292176993","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","921110390","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0877728411","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0510968487","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","921110390","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10605,15 +10605,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","179617606","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","899253750","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0427953560","82vn.com/",1,
+r7,0,"^userNumber$","673469888","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0194204701","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","817446282","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0427953560","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0366377492","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","817446282","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10668,12 +10668,12 @@
 r7,0,"^userNumber$","194847373","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0138901913","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0706737575","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","794096714","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0138901913","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0147522631","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","794096714","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10728,12 +10728,12 @@
 r7,0,"^userNumber$","647771555","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0528655147","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0533243236","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","665985669","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0528655147","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0330177088","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","665985669","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10785,15 +10785,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","398468511","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","162502952","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0303297455","82vn.com/",1,
+r7,0,"^userNumber$","269018658","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0779457805","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","887987470","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0303297455","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0701039325","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","887987470","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10845,15 +10845,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","217980683","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","570358561","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0940487207","82vn.com/",1,
+r7,0,"^userNumber$","362458881","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0661063003","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","902601827","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0940487207","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0265442907","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","902601827","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10905,15 +10905,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","159688481","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","788579125","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0688473410","82vn.com/",1,
+r7,0,"^userNumber$","884712661","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0153726068","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","787231227","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0688473410","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0501381851","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","787231227","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -10968,12 +10968,12 @@
 r7,0,"^userNumber$","950300628","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0247634535","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0377713087","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","855783751","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0247634535","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0865310787","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","855783751","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11028,12 +11028,12 @@
 r7,0,"^userNumber$","304724846","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0902509846","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0122756426","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","930472082","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0902509846","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0289213592","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","930472082","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11088,12 +11088,12 @@
 r7,0,"^userNumber$","728679717","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0960174946","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0452712671","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","436611321","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0960174946","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0972642698","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","436611321","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11148,12 +11148,12 @@
 r7,0,"^userNumber$","494376561","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0938323135","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0919108877","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","293938208","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0938323135","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0914232752","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","293938208","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11205,15 +11205,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","471747886","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","992202759","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0922458782","82vn.com/",1,
+r7,0,"^userNumber$","640099892","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0730071510","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","972849176","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0922458782","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0950326257","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","972849563","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11265,15 +11265,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","671435278","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","629796902","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0201020412","82vn.com/",1,
+r7,0,"^userNumber$","754487023","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0113394649","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","728645459","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0201020412","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0299586209","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","728645459","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11328,12 +11328,12 @@
 r7,0,"^userNumber$","429364408","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0882210611","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0516097492","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","510589494","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0882210611","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0502203663","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","510589494","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11388,12 +11388,12 @@
 r7,0,"^userNumber$","546858018","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0844222220","82vn.com/",1,
-r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","288795615","vesovn.cc/",1,
-r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0844222220","66club.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0723718551","82vn.com/",1,
+r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r12,0,"^userNumber$","869791353","vesovn.cc/",1,
+r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0972964281","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","288795615","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11448,12 +11448,12 @@
 r7,0,"^userNumber$","626389456","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0518845369","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0387508580","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","808382754","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0518845369","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0559485294","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","808382754","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11505,15 +11505,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","558976303","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","704969287","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0347238570","82vn.com/",1,
+r7,0,"^userNumber$","813886198","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0297787871","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","243034593","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0347238570","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0641340663","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","243034593","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11568,12 +11568,12 @@
 r7,0,"^userNumber$","300681874","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0155996135","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0238929616","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","361717296","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0155996135","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0343110954","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","361717296","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11628,12 +11628,12 @@
 r7,0,"^userNumber$","896352045","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0900537671","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0482929584","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","694264800","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0900537671","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0972822051","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","694264800","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11685,15 +11685,15 @@
 Rule ID,Type,Name,Value,Site,Mode,Profile
 r1,0,"^Điện thoại$","927198197","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","682778239","vn168-1.com/",1,
-r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0732954968","82vn.com/",1,
+r7,0,"^userNumber$","225240337","vn168-1.com/",1,
+r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0800939365","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","919755565","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0732954968","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0234227997","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","919755565","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11748,12 +11748,12 @@
 r7,0,"^userNumber$","136285214","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0829067929","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0140819899","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","188209750","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0829067929","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0870087266","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","188209750","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11808,12 +11808,12 @@
 r7,0,"^userNumber$","380460346","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0564761171","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0788032879","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","534833127","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0564761171","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0814178523","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","534833127","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11868,12 +11868,12 @@
 r7,0,"^userNumber$","479992975","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0345220025","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0713851988","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","422748665","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0345220025","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0680462558","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","422748665","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11928,12 +11928,12 @@
 r7,0,"^userNumber$","493676233","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0652223685","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0746321614","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","298597327","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0652223685","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0789667208","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","298597327","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -11988,12 +11988,12 @@
 r7,0,"^userNumber$","993524586","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0910642583","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0920731760","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","728304177","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0910642583","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0828942520","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","728304177","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -12048,12 +12048,12 @@
 r7,0,"^userNumber$","757534413","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0496490560","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0487990543","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","542510348","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0496490560","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0373981827","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","542510348","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -12108,12 +12108,12 @@
 r7,0,"^userNumber$","845739648","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0100414233","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0464851322","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","363768557","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0100414233","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0915238961","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","363768557","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -12168,12 +12168,12 @@
 r7,0,"^userNumber$","292492876","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0952194757","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0995167217","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","718718439","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0952194757","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0718796976","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","718718439","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -12228,12 +12228,12 @@
 r7,0,"^userNumber$","324032636","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0507446928","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0364449209","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","406262189","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0507446928","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0808699794","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","406262189","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -12288,12 +12288,12 @@
 r7,0,"^userNumber$","647244815","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0807090642","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0802190473","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","981585264","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0807090642","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0420184490","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","981585264","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -12348,12 +12348,12 @@
 r7,0,"^userNumber$","970381613","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0229238879","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0967725620","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","837930902","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0229238879","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0588502213","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","837930902","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,
@@ -12408,12 +12408,12 @@
 r7,0,"^userNumber$","478104888","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
-r10,0,"^Tên đăng nhập hoặc SĐT$","0681891647","82vn.com/",1,
+r10,0,"^Tên đăng nhập hoặc SĐT$","0199552453","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
 r12,0,"^userNumber$","293134513","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
-r15,0,"^Tên đăng nhập hoặc SĐT$","0681891647","66club.com/",1,
+r15,0,"^Tên đăng nhập hoặc SĐT$","0318964978","66club.com/",1,
 r16,1,"^Mật khẩu$","GiaMinh123","66club.com/",1,
 r17,0,"^username$","293134513","pilot79.com/login",1,
 r18,1,"^password$","GiaMinh123","pilot79.com/login",1,

--- a/tools/autofill/data/autofill.xlsx
+++ b/tools/autofill/data/autofill.xlsx
@@ -463,9 +463,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","798458096","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","809736430","vn168-1.com/",1,
+r1,0,"^Điện thoại$","944045588","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","847183813","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0117591753","82vn.com/",1,
@@ -523,9 +523,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","979501005","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","954300234","vn168-1.com/",1,
+r1,0,"^Điện thoại$","144560249","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","144560249","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0694081662","82vn.com/",1,
@@ -583,9 +583,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","112358334","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","425377978","vn168-1.com/",1,
+r1,0,"^Điện thoại$","251895360","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","251895360","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0396656673","82vn.com/",1,
@@ -643,9 +643,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","979501006","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","903247907","vn168-1.com/",1,
+r1,0,"^Điện thoại$","254705774","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","254705774","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0556319435","82vn.com/",1,
@@ -703,9 +703,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","275784798","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","537173139","vn168-1.com/",1,
+r1,0,"^Điện thoại$","608385161","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","608385161","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0362517916","82vn.com/",1,
@@ -763,9 +763,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","839194432","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","230388462","vn168-1.com/",1,
+r1,0,"^Điện thoại$","554562956","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","554562956","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0517457414","82vn.com/",1,
@@ -823,9 +823,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","837663550","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","272031396","vn168-1.com/",1,
+r1,0,"^Điện thoại$","280349044","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","280349044","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0685122222","82vn.com/",1,
@@ -883,9 +883,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","979501008","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","903754263","vn168-1.com/",1,
+r1,0,"^Điện thoại$","601276055","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","601276055","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0652386083","82vn.com/",1,
@@ -943,9 +943,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","216114250","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","440437680","vn168-1.com/",1,
+r1,0,"^Điện thoại$","294918195","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","294918195","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0846586981","82vn.com/",1,
@@ -1003,9 +1003,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","979501009","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","419909334","vn168-1.com/",1,
+r1,0,"^Điện thoại$","854818240","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","854818240","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0384186842","82vn.com/",1,
@@ -1063,9 +1063,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","839113412","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","424787253","vn168-1.com/",1,
+r1,0,"^Điện thoại$","299613540","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","299613540","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0455132253","82vn.com/",1,
@@ -1123,9 +1123,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","979501010","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","596218698","vn168-1.com/",1,
+r1,0,"^Điện thoại$","114483130","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","114483130","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0868497407","82vn.com/",1,
@@ -1183,14 +1183,14 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","911090044","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","721300290","vn168-1.com/",1,
+r1,0,"^Điện thoại$","588605926","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","588605926","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0431356801","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","322496459","vesovn.cc/",1,
+r12,0,"^userNumber$","738319100","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r15,0,"^Tên đăng nhập hoặc SĐT$","0277884563","66club.com/",1,
@@ -1243,9 +1243,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","741989372","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","792821335","vn168-1.com/",1,
+r1,0,"^Điện thoại$","653539459","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","653539459","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0590537338","82vn.com/",1,
@@ -1303,14 +1303,14 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","272567880","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","503194580","vn168-1.com/",1,
+r1,0,"^Điện thoại$","150018957","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","150018957","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0239414256","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","772048392","vesovn.cc/",1,
+r12,0,"^userNumber$","738190890","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r15,0,"^Tên đăng nhập hoặc SĐT$","0155594046","66club.com/",1,
@@ -1363,9 +1363,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","979501638","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","671727182","vn168-1.com/",1,
+r1,0,"^Điện thoại$","737613663","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","737613663","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0483033542","82vn.com/",1,
@@ -1423,9 +1423,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","531343997","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","839131939","vn168-1.com/",1,
+r1,0,"^Điện thoại$","764702898","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","764702898","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0621674530","82vn.com/",1,
@@ -1483,9 +1483,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","979501371","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","869791353","vn168-1.com/",1,
+r1,0,"^Điện thoại$","286166721","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","286166721","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0359318067","82vn.com/",1,
@@ -1543,7 +1543,7 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","908535348","92lottery.com/",1,
+r1,0,"^Điện thoại$","535043057","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
 r7,0,"^userNumber$","391039193","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
@@ -1603,9 +1603,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","248887691","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","819374617","vn168-1.com/",1,
+r1,0,"^Điện thoại$","436720448","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","535043057","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0266177391","82vn.com/",1,
@@ -1663,9 +1663,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","343122431","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","432578596","vn168-1.com/",1,
+r1,0,"^Điện thoại$","434920649","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","436720448","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0651270446","82vn.com/",1,
@@ -1723,9 +1723,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","329438614","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","290552570","vn168-1.com/",1,
+r1,0,"^Điện thoại$","230380445","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","434920649","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0225645943","82vn.com/",1,
@@ -1783,9 +1783,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","410827710","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","274868121","vn168-1.com/",1,
+r1,0,"^Điện thoại$","865759847","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","230380445","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0785323397","82vn.com/",1,
@@ -1843,14 +1843,14 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","348627365","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","456548104","vn168-1.com/",1,
+r1,0,"^Điện thoại$","600708068","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","865759847","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0497781366","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","508647800","vesovn.cc/",1,
+r12,0,"^userNumber$","839381829","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r15,0,"^Tên đăng nhập hoặc SĐT$","0735995605","66club.com/",1,
@@ -1903,9 +1903,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","904316362","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","377107198","vn168-1.com/",1,
+r1,0,"^Điện thoại$","276067633","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","600708068","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0597771870","82vn.com/",1,
@@ -1963,9 +1963,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","839777193","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","286292786","vn168-1.com/",1,
+r1,0,"^Điện thoại$","653782480","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","276067633","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0159793400","82vn.com/",1,
@@ -2023,9 +2023,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","700437394","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","781728418","vn168-1.com/",1,
+r1,0,"^Điện thoại$","442064105","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","653782480","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0770963545","82vn.com/",1,
@@ -2083,9 +2083,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","242445354","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","331595321","vn168-1.com/",1,
+r1,0,"^Điện thoại$","171376349","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","442064105","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0565753913","82vn.com/",1,
@@ -2143,9 +2143,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","597622011","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","209843719","vn168-1.com/",1,
+r1,0,"^Điện thoại$","762308068","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","171376349","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0582936414","82vn.com/",1,
@@ -2203,9 +2203,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","534230098","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","965503372","vn168-1.com/",1,
+r1,0,"^Điện thoại$","605882051","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","762308068","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0355530233","82vn.com/",1,
@@ -2263,9 +2263,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","231267101","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","471486505","vn168-1.com/",1,
+r1,0,"^Điện thoại$","150929002","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","605882051","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0983795614","82vn.com/",1,
@@ -2323,9 +2323,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","710183474","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","756102322","vn168-1.com/",1,
+r1,0,"^Điện thoại$","555423270","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","150929002","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0921034802","82vn.com/",1,
@@ -2383,9 +2383,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","554750174","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","250799047","vn168-1.com/",1,
+r1,0,"^Điện thoại$","597355866","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","555423270","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0281439082","82vn.com/",1,
@@ -2443,9 +2443,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","337297299","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","135324831","vn168-1.com/",1,
+r1,0,"^Điện thoại$","203697744","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","597355866","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0314629440","82vn.com/",1,
@@ -2503,9 +2503,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","993155349","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","900920365","vn168-1.com/",1,
+r1,0,"^Điện thoại$","817683045","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","203697744","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0474511201","82vn.com/",1,
@@ -2563,9 +2563,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","674301872","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","502399288","vn168-1.com/",1,
+r1,0,"^Điện thoại$","166416206","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","817683045","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0770262210","82vn.com/",1,
@@ -2623,9 +2623,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","405012833","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","551838120","vn168-1.com/",1,
+r1,0,"^Điện thoại$","790315465","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","166416206","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0267971527","82vn.com/",1,
@@ -2683,9 +2683,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","334497220","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","712234523","vn168-1.com/",1,
+r1,0,"^Điện thoại$","470182012","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","790315465","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0143796442","82vn.com/",1,
@@ -2743,9 +2743,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","922012758","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","127587317","vn168-1.com/",1,
+r1,0,"^Điện thoại$","552021844","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","470182012","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0152317842","82vn.com/",1,
@@ -2803,14 +2803,14 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","838484328","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","829190998","vn168-1.com/",1,
+r1,0,"^Điện thoại$","601858781","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","552021844","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0186714892","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","680331212","vesovn.cc/",1,
+r12,0,"^userNumber$","839184890","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r15,0,"^Tên đăng nhập hoặc SĐT$","0201020412","66club.com/",1,
@@ -2863,9 +2863,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","622118911","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","169673842","vn168-1.com/",1,
+r1,0,"^Điện thoại$","260722363","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","601858781","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0288834610","82vn.com/",1,
@@ -2923,9 +2923,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","235593869","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","321484254","vn168-1.com/",1,
+r1,0,"^Điện thoại$","933460113","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","260722363","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0293649777","82vn.com/",1,
@@ -2983,9 +2983,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","743357990","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","312326308","vn168-1.com/",1,
+r1,0,"^Điện thoại$","663977353","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","933460113","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0668338209","82vn.com/",1,
@@ -3043,9 +3043,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","104215811","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","521441770","vn168-1.com/",1,
+r1,0,"^Điện thoại$","200931225","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","663977353","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0869590704","82vn.com/",1,
@@ -3103,9 +3103,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","522176386","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","391257125","vn168-1.com/",1,
+r1,0,"^Điện thoại$","939064235","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","200931225","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0683963355","82vn.com/",1,
@@ -3163,9 +3163,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","469569217","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","530499292","vn168-1.com/",1,
+r1,0,"^Điện thoại$","460326010","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","939064235","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0754971113","82vn.com/",1,
@@ -3223,9 +3223,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","295717414","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","924901639","vn168-1.com/",1,
+r1,0,"^Điện thoại$","653018017","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","460326010","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0144333790","82vn.com/",1,
@@ -3283,9 +3283,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","189533836","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","494242786","vn168-1.com/",1,
+r1,0,"^Điện thoại$","830045461","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","653018017","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0914496293","82vn.com/",1,
@@ -3343,9 +3343,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","354631410","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","237599623","vn168-1.com/",1,
+r1,0,"^Điện thoại$","993126976","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","830045461","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0130635013","82vn.com/",1,
@@ -3403,9 +3403,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","105872579","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","808637876","vn168-1.com/",1,
+r1,0,"^Điện thoại$","524001152","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","993126976","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0207477740","82vn.com/",1,
@@ -3463,9 +3463,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","348667817","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","785486960","vn168-1.com/",1,
+r1,0,"^Điện thoại$","506961046","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","524001152","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0484409900","82vn.com/",1,
@@ -3523,9 +3523,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","379448634","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","502272822","vn168-1.com/",1,
+r1,0,"^Điện thoại$","206029086","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","506961046","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0118612301","82vn.com/",1,
@@ -3583,9 +3583,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","490956729","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","208857445","vn168-1.com/",1,
+r1,0,"^Điện thoại$","502349910","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","206029086","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0742090677","82vn.com/",1,
@@ -3643,9 +3643,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","277884563","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","976955935","vn168-1.com/",1,
+r1,0,"^Điện thoại$","193834522","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","502349910","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0457515750","82vn.com/",1,
@@ -3703,9 +3703,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","819146858","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","559875271","vn168-1.com/",1,
+r1,0,"^Điện thoại$","641995313","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","193834522","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0216561031","82vn.com/",1,
@@ -3763,9 +3763,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","155594046","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","922563316","vn168-1.com/",1,
+r1,0,"^Điện thoại$","890537625","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","641995313","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0643477873","82vn.com/",1,
@@ -3823,9 +3823,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","862874795","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","184381091","vn168-1.com/",1,
+r1,0,"^Điện thoại$","399769927","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","890537625","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0332946497","82vn.com/",1,
@@ -3883,9 +3883,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","316362871","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","679379146","vn168-1.com/",1,
+r1,0,"^Điện thoại$","361186150","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","399769927","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0592218823","82vn.com/",1,
@@ -3943,9 +3943,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","190254456","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","696270312","vn168-1.com/",1,
+r1,0,"^Điện thoại$","270842988","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","361186150","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0381227771","82vn.com/",1,
@@ -4003,9 +4003,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","523861988","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","894083744","vn168-1.com/",1,
+r1,0,"^Điện thoại$","940856654","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","270842988","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0185595540","82vn.com/",1,
@@ -4063,7 +4063,7 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","926998576","92lottery.com/",1,
+r1,0,"^Điện thoại$","137419700","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
 r7,0,"^userNumber$","891488292","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
@@ -4123,9 +4123,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","885890347","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","203245311","vn168-1.com/",1,
+r1,0,"^Điện thoại$","636742166","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","940856654","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0396600487","82vn.com/",1,
@@ -4183,9 +4183,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","250506310","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","627091702","vn168-1.com/",1,
+r1,0,"^Điện thoại$","247372600","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","137419700","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0137681995","82vn.com/",1,
@@ -4243,9 +4243,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","583089981","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","233724987","vn168-1.com/",1,
+r1,0,"^Điện thoại$","526040172","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","636742166","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0937869234","82vn.com/",1,
@@ -4303,9 +4303,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","735995605","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","139194217","vn168-1.com/",1,
+r1,0,"^Điện thoại$","750662783","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","247372600","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0647680330","82vn.com/",1,
@@ -4363,9 +4363,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","405724680","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","864711163","vn168-1.com/",1,
+r1,0,"^Điện thoại$","414405744","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","526040172","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0171193774","82vn.com/",1,
@@ -4423,9 +4423,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","177309080","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","535540735","vn168-1.com/",1,
+r1,0,"^Điện thoại$","502816692","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","750662783","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0718259365","82vn.com/",1,
@@ -4483,9 +4483,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","855312784","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","631935688","vn168-1.com/",1,
+r1,0,"^Điện thoại$","502227486","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","414405744","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0674368142","82vn.com/",1,
@@ -4543,9 +4543,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","877728411","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","679932626","vn168-1.com/",1,
+r1,0,"^Điện thoại$","466566223","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","502816692","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0686824342","82vn.com/",1,
@@ -4603,9 +4603,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","427953560","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","117585157","vn168-1.com/",1,
+r1,0,"^Điện thoại$","906804333","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","502227486","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0595664839","82vn.com/",1,
@@ -4663,9 +4663,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","138901913","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","758416237","vn168-1.com/",1,
+r1,0,"^Điện thoại$","172253686","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","466566223","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0347436227","82vn.com/",1,
@@ -4723,9 +4723,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","528655147","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","150663173","vn168-1.com/",1,
+r1,0,"^Điện thoại$","764765529","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","906804333","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0257054600","82vn.com/",1,
@@ -4783,9 +4783,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","303297455","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","344417848","vn168-1.com/",1,
+r1,0,"^Điện thoại$","832141088","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","172253686","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0550308970","82vn.com/",1,
@@ -4843,9 +4843,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","940487207","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","275380193","vn168-1.com/",1,
+r1,0,"^Điện thoại$","850682069","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","764765529","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0597194832","82vn.com/",1,
@@ -4903,9 +4903,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","688473410","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","965107947","vn168-1.com/",1,
+r1,0,"^Điện thoại$","854632145","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","832141088","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0757505685","82vn.com/",1,
@@ -4963,9 +4963,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","247634535","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","796850515","vn168-1.com/",1,
+r1,0,"^Điện thoại$","157437206","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","850682069","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0523704563","82vn.com/",1,
@@ -5023,9 +5023,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","902509846","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","118327918","vn168-1.com/",1,
+r1,0,"^Điện thoại$","752343378","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","854632145","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0374685402","82vn.com/",1,
@@ -5083,9 +5083,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","960174946","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","451136429","vn168-1.com/",1,
+r1,0,"^Điện thoại$","168120808","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","157437206","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0634681778","82vn.com/",1,
@@ -5143,9 +5143,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","938323135","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","605613127","vn168-1.com/",1,
+r1,0,"^Điện thoại$","599789160","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","752343378","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0641808817","82vn.com/",1,
@@ -5203,9 +5203,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","922458782","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","516848848","vn168-1.com/",1,
+r1,0,"^Điện thoại$","265103342","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","168120808","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0204617012","82vn.com/",1,
@@ -5263,9 +5263,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","201020412","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","645943994","vn168-1.com/",1,
+r1,0,"^Điện thoại$","269568124","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","599789160","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0445141745","82vn.com/",1,
@@ -5323,9 +5323,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","882210611","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","482046054","vn168-1.com/",1,
+r1,0,"^Điện thoại$","262761356","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","265103342","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0734292596","82vn.com/",1,
@@ -5383,9 +5383,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","844222220","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","684943253","vn168-1.com/",1,
+r1,0,"^Điện thoại$","616087790","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","269568124","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0567900565","82vn.com/",1,
@@ -5443,9 +5443,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","518845369","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","467115569","vn168-1.com/",1,
+r1,0,"^Điện thoại$","323183521","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","262761356","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0342966136","82vn.com/",1,
@@ -5503,9 +5503,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","347238570","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","644857262","vn168-1.com/",1,
+r1,0,"^Điện thoại$","941543096","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","616087790","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0267221863","82vn.com/",1,
@@ -5563,9 +5563,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","155996135","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","443199830","vn168-1.com/",1,
+r1,0,"^Điện thoại$","384537672","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","323183521","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0119708889","82vn.com/",1,
@@ -5623,9 +5623,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","900537671","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","257514777","vn168-1.com/",1,
+r1,0,"^Điện thoại$","342472612","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","941543096","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0860008975","82vn.com/",1,
@@ -5683,9 +5683,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","732954968","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","632614346","vn168-1.com/",1,
+r1,0,"^Điện thoại$","190075444","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","384537672","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0770906492","82vn.com/",1,
@@ -5743,9 +5743,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","829067929","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","951756353","vn168-1.com/",1,
+r1,0,"^Điện thoại$","616369148","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","342472612","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0442703288","82vn.com/",1,
@@ -5803,9 +5803,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","564761171","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","619160265","vn168-1.com/",1,
+r1,0,"^Điện thoại$","167443115","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","190075444","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0593777129","82vn.com/",1,
@@ -5863,14 +5863,14 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","345220025","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","298156980","vn168-1.com/",1,
+r1,0,"^Điện thoại$","984471236","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","616369148","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0530458952","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","122953707","vesovn.cc/",1,
+r12,0,"^userNumber$","748193849","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r15,0,"^Tên đăng nhập hoặc SĐT$","0921034802","66club.com/",1,
@@ -5923,14 +5923,14 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","652223685","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","626552933","vn168-1.com/",1,
+r1,0,"^Điện thoại$","624618486","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","948194819","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0965243129","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","441195814","vesovn.cc/",1,
+r12,0,"^userNumber$","948194819","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r15,0,"^Tên đăng nhập hoặc SĐT$","0281439082","66club.com/",1,
@@ -5983,14 +5983,14 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","910642583","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","280105855","vn168-1.com/",1,
+r1,0,"^Điện thoại$","817516049","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","167443115","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0530434386","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","609412968","vesovn.cc/",1,
+r12,0,"^userNumber$","666381743","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r15,0,"^Tên đăng nhập hoặc SĐT$","0314629440","66club.com/",1,
@@ -6043,14 +6043,14 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","496490560","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","535501346","vn168-1.com/",1,
+r1,0,"^Điện thoại$","588077302","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","911947410","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0502754103","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","637918516","vesovn.cc/",1,
+r12,0,"^userNumber$","911947410","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r15,0,"^Tên đăng nhập hoặc SĐT$","0474511201","66club.com/",1,
@@ -6103,14 +6103,14 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","100414233","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","754889022","vn168-1.com/",1,
+r1,0,"^Điện thoại$","430510198","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","381738193","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0160044580","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","368821102","vesovn.cc/",1,
+r12,0,"^userNumber$","381738193","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r15,0,"^Tên đăng nhập hoặc SĐT$","0770262210","66club.com/",1,
@@ -6163,9 +6163,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","952194757","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","772336937","vn168-1.com/",1,
+r1,0,"^Điện thoại$","990048127","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","984471236","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0405957591","82vn.com/",1,
@@ -6223,14 +6223,14 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","507446928","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","769112376","vn168-1.com/",1,
+r1,0,"^Điện thoại$","171201446","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","624618486","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0907131640","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","291058185","vesovn.cc/",1,
+r12,0,"^userNumber$","381937183","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r15,0,"^Tên đăng nhập hoặc SĐT$","0143796442","66club.com/",1,
@@ -6283,14 +6283,14 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","807090642","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","285836477","vn168-1.com/",1,
+r1,0,"^Điện thoại$","763729089","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","381391837","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0594372056","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","597307526","vesovn.cc/",1,
+r12,0,"^userNumber$","381391837","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r15,0,"^Tên đăng nhập hoặc SĐT$","0152317842","66club.com/",1,
@@ -6343,14 +6343,14 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","229238879","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","692269018","vn168-1.com/",1,
+r1,0,"^Điện thoại$","976198060","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","819370183","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0475423584","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","671432104","vesovn.cc/",1,
+r12,0,"^userNumber$","819370183","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r15,0,"^Tên đăng nhập hoặc SĐT$","0186714892","66club.com/",1,
@@ -6403,14 +6403,14 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","681891647","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","931487388","vn168-1.com/",1,
+r1,0,"^Điện thoại$","413005566","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","830371839","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0832582346","82vn.com/",1,
 r11,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
-r12,0,"^userNumber$","359220239","vesovn.cc/",1,
+r12,0,"^userNumber$","830371839","vesovn.cc/",1,
 r27,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r28,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vesovn.cc/",1,
 r15,0,"^Tên đăng nhập hoặc SĐT$","0288834610","66club.com/",1,
@@ -6463,9 +6463,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","817911019","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","698214634","vn168-1.com/",1,
+r1,0,"^Điện thoại$","889309110","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","817516049","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0171783928","82vn.com/",1,
@@ -6523,9 +6523,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","441692018","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","140761526","vn168-1.com/",1,
+r1,0,"^Điện thoại$","207535590","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","588077302","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0255428375","82vn.com/",1,
@@ -6583,9 +6583,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","404850696","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","813492746","vn168-1.com/",1,
+r1,0,"^Điện thoại$","156624701","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","430510198","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0580809466","82vn.com/",1,
@@ -6643,9 +6643,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","748112817","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","595886554","vn168-1.com/",1,
+r1,0,"^Điện thoại$","472174056","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","990048127","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0981783981","82vn.com/",1,
@@ -6703,9 +6703,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","555417503","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","304672231","vn168-1.com/",1,
+r1,0,"^Điện thoại$","151732436","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","171201446","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0304845735","82vn.com/",1,
@@ -6763,9 +6763,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","170770127","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","999768632","vn168-1.com/",1,
+r1,0,"^Điện thoại$","718153430","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","763729089","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0705749319","82vn.com/",1,
@@ -6823,9 +6823,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","655389299","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","773172809","vn168-1.com/",1,
+r1,0,"^Điện thoại$","442454633","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","976198060","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0704882865","82vn.com/",1,
@@ -6883,9 +6883,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","609362502","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","141773592","vn168-1.com/",1,
+r1,0,"^Điện thoại$","787120066","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","413005566","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0383439203","82vn.com/",1,
@@ -6943,9 +6943,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","886344845","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","782042484","vn168-1.com/",1,
+r1,0,"^Điện thoại$","979424414","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","889309110","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0710935132","82vn.com/",1,
@@ -7003,9 +7003,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","341377430","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","861472544","vn168-1.com/",1,
+r1,0,"^Điện thoại$","780162891","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","207535590","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0510968487","82vn.com/",1,
@@ -7063,9 +7063,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","582523777","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","313729126","vn168-1.com/",1,
+r1,0,"^Điện thoại$","483543994","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","156624701","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0366377492","82vn.com/",1,
@@ -7123,9 +7123,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","850544836","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","781071091","vn168-1.com/",1,
+r1,0,"^Điện thoại$","979480425","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","472174056","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0147522631","82vn.com/",1,
@@ -7183,9 +7183,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","110962678","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","874437680","vn168-1.com/",1,
+r1,0,"^Điện thoại$","964609166","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","151732436","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0330177088","82vn.com/",1,
@@ -7243,9 +7243,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","183030648","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","191076271","vn168-1.com/",1,
+r1,0,"^Điện thoại$","633543603","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","718153430","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0701039325","82vn.com/",1,
@@ -7303,9 +7303,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","150344554","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","528643656","vn168-1.com/",1,
+r1,0,"^Điện thoại$","761761539","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","442454633","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0265442907","82vn.com/",1,
@@ -7363,9 +7363,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","721730662","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","448718717","vn168-1.com/",1,
+r1,0,"^Điện thoại$","496865242","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","787120066","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0501381851","82vn.com/",1,
@@ -7423,9 +7423,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","129480659","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","683896641","vn168-1.com/",1,
+r1,0,"^Điện thoại$","694228404","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","979424414","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0865310787","82vn.com/",1,
@@ -7483,9 +7483,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","577606017","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","996263657","vn168-1.com/",1,
+r1,0,"^Điện thoại$","924900960","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","780162891","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0289213592","82vn.com/",1,
@@ -7543,9 +7543,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","453105691","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","249279129","vn168-1.com/",1,
+r1,0,"^Điện thoại$","609312996","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","483543994","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0972642698","82vn.com/",1,
@@ -7603,9 +7603,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","618160633","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","313870542","vn168-1.com/",1,
+r1,0,"^Điện thoại$","835853451","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","979480425","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0914232752","82vn.com/",1,
@@ -7663,9 +7663,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","933386016","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","126905109","vn168-1.com/",1,
+r1,0,"^Điện thoại$","422313676","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","964609166","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0950326257","82vn.com/",1,
@@ -7723,9 +7723,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","617857812","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","132977387","vn168-1.com/",1,
+r1,0,"^Điện thoại$","301906889","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","633543603","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0299586209","82vn.com/",1,
@@ -7783,9 +7783,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","860703492","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","913201728","vn168-1.com/",1,
+r1,0,"^Điện thoại$","226818546","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","761761539","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0502203663","82vn.com/",1,
@@ -7843,9 +7843,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","624774589","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","213248948","vn168-1.com/",1,
+r1,0,"^Điện thoại$","552020872","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","496865242","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0972964281","82vn.com/",1,
@@ -7903,9 +7903,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","270185655","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","638806391","vn168-1.com/",1,
+r1,0,"^Điện thoại$","849927220","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","694228404","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0559485294","82vn.com/",1,
@@ -7963,9 +7963,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","488682790","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","727532124","vn168-1.com/",1,
+r1,0,"^Điện thoại$","122314698","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","924900960","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0641340663","82vn.com/",1,
@@ -8023,9 +8023,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","982220726","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","322788873","vn168-1.com/",1,
+r1,0,"^Điện thoại$","374456509","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","609312996","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0343110954","82vn.com/",1,
@@ -8083,9 +8083,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","704918017","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","192488282","vn168-1.com/",1,
+r1,0,"^Điện thoại$","546502274","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","835853451","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0972822051","82vn.com/",1,
@@ -8143,9 +8143,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","139746525","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","728619603","vn168-1.com/",1,
+r1,0,"^Điện thoại$","646487560","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","422313676","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0234227997","82vn.com/",1,
@@ -8203,9 +8203,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","858059917","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","647009110","vn168-1.com/",1,
+r1,0,"^Điện thoại$","508803336","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","301906889","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0870087266","82vn.com/",1,
@@ -8263,9 +8263,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","614177179","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","632523839","vn168-1.com/",1,
+r1,0,"^Điện thoại$","920770301","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","226818546","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0814178523","82vn.com/",1,
@@ -8323,9 +8323,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","432117602","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","505190728","vn168-1.com/",1,
+r1,0,"^Điện thoại$","581263144","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","552020872","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0680462558","82vn.com/",1,
@@ -8383,9 +8383,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","669979097","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","279692903","vn168-1.com/",1,
+r1,0,"^Điện thoại$","704802870","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","849927220","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0789667208","82vn.com/",1,
@@ -8443,9 +8443,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","317426869","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","886238133","vn168-1.com/",1,
+r1,0,"^Điện thoại$","401913386","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","122314698","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0828942520","82vn.com/",1,
@@ -8503,9 +8503,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","737491477","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","395790540","vn168-1.com/",1,
+r1,0,"^Điện thoại$","972799016","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","374456509","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0373981827","82vn.com/",1,
@@ -8563,9 +8563,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","836962736","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","416467974","vn168-1.com/",1,
+r1,0,"^Điện thoại$","243486092","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","546502274","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0915238961","82vn.com/",1,
@@ -8623,9 +8623,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","349784705","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","319564470","vn168-1.com/",1,
+r1,0,"^Điện thoại$","397309073","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","646487560","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0718796976","82vn.com/",1,
@@ -8683,9 +8683,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","529711519","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","896923185","vn168-1.com/",1,
+r1,0,"^Điện thoại$","823233174","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","508803336","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0808699794","82vn.com/",1,
@@ -8743,7 +8743,7 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","215146724","92lottery.com/",1,
+r1,0,"^Điện thoại$","544698117","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
 r7,0,"^userNumber$","605932089","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
@@ -8803,9 +8803,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","229899212","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","636954689","vn168-1.com/",1,
+r1,0,"^Điện thoại$","431038907","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","920770301","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0588502213","82vn.com/",1,
@@ -8863,9 +8863,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","767987582","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","895677119","vn168-1.com/",1,
+r1,0,"^Điện thoại$","292849299","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","581263144","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0318964978","82vn.com/",1,
@@ -8923,9 +8923,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","327318852","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","329890249","vn168-1.com/",1,
+r1,0,"^Điện thoại$","593111069","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","704802870","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0985364978","82vn.com/",1,
@@ -8983,9 +8983,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","221166262","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","896788879","vn168-1.com/",1,
+r1,0,"^Điện thoại$","205524322","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","401913386","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0710882106","82vn.com/",1,
@@ -9043,9 +9043,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","165135927","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","369128388","vn168-1.com/",1,
+r1,0,"^Điện thoại$","643665067","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","972799016","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0529069833","82vn.com/",1,
@@ -9103,9 +9103,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","518399200","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","202796815","vn168-1.com/",1,
+r1,0,"^Điện thoại$","457394864","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","243486092","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0288248439","82vn.com/",1,
@@ -9163,9 +9163,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","352080842","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","545410662","vn168-1.com/",1,
+r1,0,"^Điện thoại$","140399490","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","397309073","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0928920932","82vn.com/",1,
@@ -9223,9 +9223,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","500743599","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","564327553","vn168-1.com/",1,
+r1,0,"^Điện thoại$","658143285","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","823233174","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0610897930","82vn.com/",1,
@@ -9283,9 +9283,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","730884844","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","839549360","vn168-1.com/",1,
+r1,0,"^Điện thoại$","271655921","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","544698117","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0139160052","82vn.com/",1,
@@ -9343,9 +9343,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","883212392","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","147198026","vn168-1.com/",1,
+r1,0,"^Điện thoại$","487280163","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","431038907","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0179130839","82vn.com/",1,
@@ -9403,9 +9403,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","444508671","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","624268691","vn168-1.com/",1,
+r1,0,"^Điện thoại$","240520776","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","292849299","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0151664092","82vn.com/",1,
@@ -9463,9 +9463,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","921234438","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","982841553","vn168-1.com/",1,
+r1,0,"^Điện thoại$","962502983","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","593111069","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0130722813","82vn.com/",1,
@@ -9523,9 +9523,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","186799261","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","573401145","vn168-1.com/",1,
+r1,0,"^Điện thoại$","453103222","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","205524322","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0557902200","82vn.com/",1,
@@ -9583,7 +9583,7 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","299599114","92lottery.com/",1,
+r1,0,"^Điện thoại$","143143253","92lottery.com/",1,
 r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
 r7,0,"^userNumber$","219600081","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
@@ -9643,9 +9643,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","470643975","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","244377790","vn168-1.com/",1,
+r1,0,"^Điện thoại$","744707531","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","643665067","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0866712811","82vn.com/",1,
@@ -9703,9 +9703,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","424206617","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","547391352","vn168-1.com/",1,
+r1,0,"^Điện thoại$","794467945","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","457394864","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0407214582","82vn.com/",1,
@@ -9763,9 +9763,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","220744650","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","539780913","vn168-1.com/",1,
+r1,0,"^Điện thoại$","700171998","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","140399490","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0114568004","82vn.com/",1,
@@ -9823,9 +9823,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","947686394","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","215695368","vn168-1.com/",1,
+r1,0,"^Điện thoại$","755714392","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","658143285","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0510032305","82vn.com/",1,
@@ -9883,9 +9883,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","921387292","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","358684847","vn168-1.com/",1,
+r1,0,"^Điện thoại$","284277021","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","271655921","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0135100549","82vn.com/",1,
@@ -9943,9 +9943,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","729857090","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","289065849","vn168-1.com/",1,
+r1,0,"^Điện thoại$","281582136","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","487280163","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0317707940","82vn.com/",1,
@@ -10003,9 +10003,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","663930893","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","234251410","vn168-1.com/",1,
+r1,0,"^Điện thoại$","263061936","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","240520776","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0875370797","82vn.com/",1,
@@ -10063,9 +10063,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","972010261","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","271163491","vn168-1.com/",1,
+r1,0,"^Điện thoại$","571991052","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","962502983","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0961502427","82vn.com/",1,
@@ -10123,9 +10123,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","931389734","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","827470340","vn168-1.com/",1,
+r1,0,"^Điện thoại$","882583955","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","453103222","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0615456159","82vn.com/",1,
@@ -10183,9 +10183,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","176843593","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","679759762","vn168-1.com/",1,
+r1,0,"^Điện thoại$","579525084","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","143143253","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0989497012","82vn.com/",1,
@@ -10243,9 +10243,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","385954737","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","510974793","vn168-1.com/",1,
+r1,0,"^Điện thoại$","996333186","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","744707531","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0359380380","82vn.com/",1,
@@ -10303,9 +10303,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","563099226","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","834582434","vn168-1.com/",1,
+r1,0,"^Điện thoại$","124400257","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","794467945","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0268101666","82vn.com/",1,
@@ -10363,9 +10363,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","242425161","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","750823151","vn168-1.com/",1,
+r1,0,"^Điện thoại$","272747479","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","700171998","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0971420561","82vn.com/",1,
@@ -10423,9 +10423,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","202941650","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","675487534","vn168-1.com/",1,
+r1,0,"^Điện thoại$","336531780","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","755714392","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0842522235","82vn.com/",1,
@@ -10483,9 +10483,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","534531341","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","180558307","vn168-1.com/",1,
+r1,0,"^Điện thoại$","982723166","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","284277021","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0465247351","82vn.com/",1,
@@ -10543,9 +10543,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","581013606","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","774026776","vn168-1.com/",1,
+r1,0,"^Điện thoại$","314056234","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","281582136","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0292176993","82vn.com/",1,
@@ -10603,9 +10603,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","179617606","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","673469888","vn168-1.com/",1,
+r1,0,"^Điện thoại$","168032475","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","263061936","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0194204701","82vn.com/",1,
@@ -10663,9 +10663,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","984925937","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","194847373","vn168-1.com/",1,
+r1,0,"^Điện thoại$","204332627","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","571991052","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0706737575","82vn.com/",1,
@@ -10723,9 +10723,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","537773696","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","647771555","vn168-1.com/",1,
+r1,0,"^Điện thoại$","132255448","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","882583955","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0533243236","82vn.com/",1,
@@ -10783,9 +10783,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","398468511","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","269018658","vn168-1.com/",1,
+r1,0,"^Điện thoại$","868839114","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","579525084","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0779457805","82vn.com/",1,
@@ -10843,9 +10843,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","217980683","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","362458881","vn168-1.com/",1,
+r1,0,"^Điện thoại$","986106343","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","996333186","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0661063003","82vn.com/",1,
@@ -10903,9 +10903,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","159688481","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","884712661","vn168-1.com/",1,
+r1,0,"^Điện thoại$","259897960","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","124400257","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0153726068","82vn.com/",1,
@@ -10963,9 +10963,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","978688913","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","950300628","vn168-1.com/",1,
+r1,0,"^Điện thoại$","187114333","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","272747479","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0377713087","82vn.com/",1,
@@ -11023,9 +11023,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","977593836","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","304724846","vn168-1.com/",1,
+r1,0,"^Điện thoại$","389972090","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","336531780","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0122756426","82vn.com/",1,
@@ -11083,9 +11083,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","291432468","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","728679717","vn168-1.com/",1,
+r1,0,"^Điện thoại$","588287311","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","982723166","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0452712671","82vn.com/",1,
@@ -11143,9 +11143,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","642844117","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","494376561","vn168-1.com/",1,
+r1,0,"^Điện thoại$","491334792","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","314056234","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0919108877","82vn.com/",1,
@@ -11203,9 +11203,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","471747886","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","640099892","vn168-1.com/",1,
+r1,0,"^Điện thoại$","914322190","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","168032475","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0730071510","82vn.com/",1,
@@ -11263,9 +11263,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","671435278","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","754487023","vn168-1.com/",1,
+r1,0,"^Điện thoại$","448170142","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","204332627","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0113394649","82vn.com/",1,
@@ -11323,9 +11323,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","536781830","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","429364408","vn168-1.com/",1,
+r1,0,"^Điện thoại$","238130293","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","132255448","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0516097492","82vn.com/",1,
@@ -11383,9 +11383,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","145937374","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","546858018","vn168-1.com/",1,
+r1,0,"^Điện thoại$","818123589","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","868839114","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0723718551","82vn.com/",1,
@@ -11443,9 +11443,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","888069509","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","626389456","vn168-1.com/",1,
+r1,0,"^Điện thoại$","647596344","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","986106343","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0387508580","82vn.com/",1,
@@ -11503,9 +11503,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","558976303","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","813886198","vn168-1.com/",1,
+r1,0,"^Điện thoại$","243384879","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","259897960","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0297787871","82vn.com/",1,
@@ -11563,9 +11563,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","871138790","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","300681874","vn168-1.com/",1,
+r1,0,"^Điện thoại$","321369674","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","187114333","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0238929616","82vn.com/",1,
@@ -11623,9 +11623,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","268852425","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","896352045","vn168-1.com/",1,
+r1,0,"^Điện thoại$","460500526","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","389972090","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0482929584","82vn.com/",1,
@@ -11683,9 +11683,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","927198197","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","225240337","vn168-1.com/",1,
+r1,0,"^Điện thoại$","969102781","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","588287311","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0800939365","82vn.com/",1,
@@ -11743,9 +11743,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","780761894","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","136285214","vn168-1.com/",1,
+r1,0,"^Điện thoại$","978454691","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","491334792","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0140819899","82vn.com/",1,
@@ -11803,9 +11803,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","372783797","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","380460346","vn168-1.com/",1,
+r1,0,"^Điện thoại$","956911495","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","914322190","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0788032879","82vn.com/",1,
@@ -11863,9 +11863,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","310142351","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","479992975","vn168-1.com/",1,
+r1,0,"^Điện thoại$","845187198","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","448170142","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0713851988","82vn.com/",1,
@@ -11923,9 +11923,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","287763722","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","493676233","vn168-1.com/",1,
+r1,0,"^Điện thoại$","201164282","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","238130293","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0746321614","82vn.com/",1,
@@ -11983,9 +11983,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","741130338","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","993524586","vn168-1.com/",1,
+r1,0,"^Điện thoại$","316587494","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","818123589","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0920731760","82vn.com/",1,
@@ -12043,9 +12043,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","672737722","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","757534413","vn168-1.com/",1,
+r1,0,"^Điện thoại$","910686601","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","647596344","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0487990543","82vn.com/",1,
@@ -12103,9 +12103,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","194730709","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","845739648","vn168-1.com/",1,
+r1,0,"^Điện thoại$","301509337","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","243384879","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0464851322","82vn.com/",1,
@@ -12163,9 +12163,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","736141793","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","292492876","vn168-1.com/",1,
+r1,0,"^Điện thoại$","729542646","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","321369674","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0995167217","82vn.com/",1,
@@ -12223,9 +12223,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","782610484","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","324032636","vn168-1.com/",1,
+r1,0,"^Điện thoại$","873332683","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","460500526","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0364449209","82vn.com/",1,
@@ -12283,9 +12283,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","567106265","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","647244815","vn168-1.com/",1,
+r1,0,"^Điện thoại$","200737810","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","969102781","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0802190473","82vn.com/",1,
@@ -12343,9 +12343,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","465802763","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","970381613","vn168-1.com/",1,
+r1,0,"^Điện thoại$","118787085","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","978454691","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0967725620","82vn.com/",1,
@@ -12403,9 +12403,9 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","640464915","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r7,0,"^userNumber$","478104888","vn168-1.com/",1,
+r1,0,"^Điện thoại$","781478023","92lottery.com/",1,
+r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
+r7,0,"^userNumber$","956911495","vn168-1.com/",1,
 r25,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r26,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","vn168-1.com/",1,
 r10,0,"^Tên đăng nhập hoặc SĐT$","0199552453","82vn.com/",1,

--- a/tools/autofill/data/autofill.xlsx
+++ b/tools/autofill/data/autofill.xlsx
@@ -463,16 +463,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","944045588","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","323423487","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","871839091","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0961502427","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","944045588","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","472654387","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","871839091","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0961502427","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0195320178","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -513,16 +518,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","144560249","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","213787407","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","892001031","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0694081662","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","144560249","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","418524681","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","892001031","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0694081662","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0966951257","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -563,16 +573,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","251895360","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","296453928","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","137687229","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0171783928","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","251895360","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","967264452","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","137687229","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0171783928","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0696602457","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -613,16 +628,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","254705774","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","622725744","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","337272762","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0615456159","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","254705774","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","972356101","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","337272762","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0615456159","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0820832150","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -663,16 +683,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","608385161","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","738824740","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","208645139","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0255428375","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","608385161","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","393885991","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","208645139","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0255428375","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0753422219","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -713,16 +738,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","554562956","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","670170269","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","143524507","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0989497012","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","554562956","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","852022374","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","143524507","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0989497012","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0464878349","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -763,16 +793,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","280349044","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","804024150","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","308898128","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0580809466","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","280349044","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","735850818","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","308898128","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0580809466","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0720449758","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -813,16 +848,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","601276055","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","255567841","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","809736430","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0359380380","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","601276055","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","117026861","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","809736430","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0359380380","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0563065675","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -863,16 +903,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","294918195","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","608681225","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","954300234","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0981783981","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","294918195","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","789236445","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","954300234","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0981783981","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0746280347","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -913,16 +958,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","854818240","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","971004442","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","425377978","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0304845735","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","854818240","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","466890966","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","425377978","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0304845735","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0223609657","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -963,16 +1013,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","299613540","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","332618993","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","306004510","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0705749319","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","299613540","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","680383336","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","306004510","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0705749319","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0216661921","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1013,16 +1068,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","114483130","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","644323726","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","740816677","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0704882865","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","114483130","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","325551308","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","740816677","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0704882865","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0935582497","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1063,16 +1123,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","588605926","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","197735906","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","738319100","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0383439203","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","588605926","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","282628577","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","738319100","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0601256002","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0503857128","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1113,16 +1178,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","653539459","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","334713360","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","435743393","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0268101666","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","653539459","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","421079280","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","435743393","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0268101666","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0658404253","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1163,16 +1233,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","150018957","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","266374203","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","738190890","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0710935132","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","150018957","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","972790371","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","738190890","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0355595512","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0208706173","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1213,16 +1288,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","737613663","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","134838312","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","561285604","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0510968487","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","737613663","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","662058115","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","561285604","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0510968487","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0709394706","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1263,16 +1343,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","764702898","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","375916516","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","847969164","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0366377492","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","764702898","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","507445160","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","847969164","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0810159992","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0318058505","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1313,16 +1398,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","286166721","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","681836084","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","161093341","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0147522631","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","286166721","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","567589787","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","161093341","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0147522631","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0414685236","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1363,16 +1453,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","535043057","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","789215830","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","903247907","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0971420561","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","535043057","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","962170200","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","903247907","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0971420561","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0911005695","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1413,16 +1508,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","436720448","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","578114421","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","325307077","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0330177088","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","436720448","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","249404022","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","325307077","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0330177088","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0176361185","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1463,16 +1563,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","434920649","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","469259734","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","849184839","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0842522235","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","434920649","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","883293320","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","849184839","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0842522235","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0424616250","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1513,16 +1618,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","230380445","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","546024777","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","482104981","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0701039325","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","230380445","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","365130592","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","482104981","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0723403947","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0473630507","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1563,16 +1673,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","865759847","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","575504091","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","662582367","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0465247351","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","865759847","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","673698381","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","662582367","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0465247351","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0406041689","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1613,16 +1728,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","600708068","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","556519869","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","839381829","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0292176993","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","600708068","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","801928807","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","839381829","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0292176993","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0904102969","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1663,16 +1783,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","276067633","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","707074136","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","301018585","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0265442907","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","276067633","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","352605383","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","301018585","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0389789053","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0685882001","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1713,16 +1838,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","653782480","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","816773084","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","923694809","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0194204701","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","653782480","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","197015543","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","923694809","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0194204701","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0520585073","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1763,16 +1893,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","442064105","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","782112937","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","513119017","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0501381851","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","442064105","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","510820431","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","513119017","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0501381851","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0407743185","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1813,16 +1948,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","171376349","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","668804658","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","760388304","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0706737575","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","171376349","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","468869918","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","760388304","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0706737575","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0669606673","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1863,16 +2003,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","762308068","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","253016536","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","814532208","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0865310787","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","762308068","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","247350514","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","814532208","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0865310787","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0366161701","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1913,16 +2058,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","605882051","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","399474927","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","537173139","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0289213592","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","605882051","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","213248546","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","537173139","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0645537066","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0155640750","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -1963,16 +2113,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","150929002","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","479509601","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","642443167","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0972642698","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","150929002","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","242896556","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","642443167","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0186678383","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0845240862","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2013,16 +2168,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","555423270","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","444173530","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","123886425","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0914232752","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","555423270","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","740959611","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","123886425","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0500079419","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0885670700","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2063,16 +2223,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","597355866","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","234526717","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","578990063","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0950326257","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","597355866","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","981305315","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","578990063","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0950326257","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0666392576","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2113,16 +2278,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","203697744","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","269847457","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","230388462","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0299586209","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","203697744","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","287290131","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","230388462","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0390988046","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0863402529","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2163,16 +2333,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","817683045","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","207804535","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","579423567","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0502203663","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","817683045","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","621750098","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","579423567","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0502203663","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0790124392","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2213,16 +2388,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","166416206","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","686390486","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","503583941","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0533243236","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","166416206","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","718734083","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","503583941","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0653121617","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0352578016","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2263,16 +2443,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","790315465","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","956510726","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","613053178","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0972964281","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","790315465","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","371838539","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","613053178","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0972964281","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0432360861","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2313,16 +2498,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","470182012","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","376141640","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","458008635","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0779457805","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","470182012","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","405567596","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","458008635","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0779457805","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0357745491","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2363,16 +2553,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","552021844","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","553159075","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","479975346","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0559485294","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","552021844","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","926300544","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","479975346","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0754465240","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0511626809","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2413,16 +2608,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","601858781","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","772632218","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","839184890","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0661063003","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","601858781","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","170424839","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","839184890","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0555699920","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0268942278","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2463,16 +2663,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","260722363","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","777973893","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","596257214","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0153726068","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","260722363","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","198116251","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","596257214","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0259195576","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0225832095","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2513,16 +2718,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","933460113","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","260722363","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","291547648","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0377713087","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","933460113","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","895463433","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","291547648","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0498803276","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0310595826","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2563,16 +2773,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","663977353","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","933460113","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","272031396","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0641340663","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","663977353","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","933460113","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","272031396","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0641340663","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0844333403","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2613,16 +2828,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","200931225","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","917253557","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","917998200","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0343110954","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","200931225","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","717968570","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","917998200","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0841527048","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0898346777","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2663,16 +2883,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","939064235","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","827003955","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","616970415","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0122756426","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","939064235","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","297753554","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","616970415","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0122756426","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0195361416","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2713,16 +2938,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","460326010","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","525100037","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","374470052","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0972822051","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","460326010","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","792199103","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","374470052","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0709521213","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0450331118","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2763,16 +2993,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","653018017","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","878529173","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","136581730","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0234227997","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","653018017","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","578480053","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","136581730","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0673069473","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0258741988","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2813,16 +3048,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","830045461","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","910901889","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","705668727","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0452712671","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","830045461","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","274226558","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","705668727","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0452712671","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0778847869","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2863,16 +3103,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","993126976","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","830045461","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","541017199","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0870087266","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","993126976","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","830045461","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","541017199","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0802870975","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0458725153","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2913,16 +3158,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","524001152","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","901892970","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","584438695","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0814178523","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","524001152","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","319916798","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","584438695","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0814178523","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0797514286","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -2963,16 +3213,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","506961046","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","751350449","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","717923446","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0919108877","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","506961046","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","491277268","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","717923446","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0919108877","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0591841096","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3013,16 +3268,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","206029086","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","766862643","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","837899158","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0680462558","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","206029086","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","735561053","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","837899158","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0680462558","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0213977067","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3063,16 +3323,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","502349910","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","517050234","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","609583079","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0789667208","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","502349910","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","244805865","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","609583079","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0789667208","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0122977355","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3113,16 +3378,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","193834522","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","260336954","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","814727375","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0730071510","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","193834522","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","738603251","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","814727375","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0521508315","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0726681359","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3163,16 +3433,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","641995313","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","396438004","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","903754263","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0113394649","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","641995313","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","875570049","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","903754263","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0133712582","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0433935664","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3213,16 +3488,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","890537625","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","462792001","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","732060482","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0828942520","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","890537625","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","641845463","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","732060482","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0828942520","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0218770868","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3263,16 +3543,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","399769927","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","945290779","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","143693936","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0373981827","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","399769927","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","342012219","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","143693936","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0373981827","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0398864171","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3313,16 +3598,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","361186150","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","111280590","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","242468983","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0516097492","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","361186150","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","251585975","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","242468983","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0516097492","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0158355512","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3363,16 +3653,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","270842988","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","663634851","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","653248752","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0398864171","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","270842988","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","337661569","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","653248752","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0398864171","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0679234290","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3413,16 +3708,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","940856654","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","881199510","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","632275752","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0723718551","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","940856654","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","367234636","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","632275752","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0723718551","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0117591753","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3463,16 +3763,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","137419700","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","943545345","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","537274898","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0915238961","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","137419700","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","764002654","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","537274898","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0915238961","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0694081662","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3513,16 +3818,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","636742166","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","933419301","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","113887223","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0387508580","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","636742166","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","571615106","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","113887223","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0387508580","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0396656673","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3563,16 +3873,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","247372600","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","342552006","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","176063268","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0718796976","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","247372600","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","856963345","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","176063268","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0706217394","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0556319435","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3613,16 +3928,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","526040172","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","233027805","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","880530594","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0808699794","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","526040172","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","222264568","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","880530594","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0808699794","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0362517916","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3663,16 +3983,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","750662783","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","990944569","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","440437680","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0420184490","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","750662783","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","276232177","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","440437680","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0482024708","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0517457414","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3713,16 +4038,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","414405744","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","927096636","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","896058454","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0440923142","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","414405744","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","577928689","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","896058454","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0440923142","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0685122222","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3763,16 +4093,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","502816692","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","198554608","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","192899035","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0588502213","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","502816692","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","129420184","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","192899035","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0588502213","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0652386083","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3813,16 +4148,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","502227486","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","747780299","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","330198652","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0297787871","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","502227486","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","590658858","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","330198652","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0767065237","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0846586981","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3863,16 +4203,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","466566223","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","512974615","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","848917384","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0318964978","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","466566223","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","131695579","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","848917384","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0318964978","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0738177391","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3913,16 +4258,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","906804333","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","185328862","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","366992618","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0985364978","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","906804333","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","150120169","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","366992618","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0985364978","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0455132253","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -3963,16 +4313,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","172253686","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","328592377","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","634843941","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0567979003","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","172253686","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","322252145","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","634843941","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0567979003","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0868497407","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4013,16 +4368,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","764765529","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","560373691","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","149526376","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0238929616","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","764765529","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","124078631","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","149526376","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0238929616","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0431356801","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4063,16 +4423,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","832141088","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","414206282","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","121629903","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0710882106","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","832141088","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","767492576","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","121629903","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0710882106","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0590537338","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4113,16 +4478,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","850682069","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","818146497","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","297340312","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0482929584","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","850682069","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","757292228","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","297340312","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0482929584","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0239414256","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4163,16 +4533,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","854632145","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","594760558","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","693379455","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0800939365","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","854632145","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","558434249","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","693379455","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0800939365","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0483033542","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4213,16 +4588,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","157437206","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","672470250","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","302595916","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0529069833","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","157437206","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","554408774","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","302595916","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0371599722","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0621674530","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4263,16 +4643,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","752343378","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","555451920","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","290225616","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0288248439","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","752343378","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","930635688","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","290225616","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0288248439","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0359318067","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4313,16 +4698,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","168120808","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","456764298","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","612673926","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0928920932","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","168120808","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","586612604","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","612673926","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0721920681","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0684834963","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4363,16 +4753,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","599789160","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","752343378","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","445242029","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0140819899","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","599789160","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","752343378","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","445242029","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0140819899","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0266177391","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4413,16 +4808,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","265103342","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","805824731","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","430579691","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0610897930","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","265103342","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","805788920","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","430579691","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0688618858","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0651270446","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4463,16 +4863,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","269568124","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","205215197","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","446339965","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0139160052","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","269568124","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","205215197","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","446339965","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0366708376","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0225645943","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4513,16 +4918,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","262761356","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","608681994","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","494285315","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0179130839","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","262761356","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","608681994","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","494285315","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0890406722","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0785323397","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4563,16 +4973,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","616087790","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","785613810","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","999450198","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0788032879","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","616087790","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","785613810","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","999450198","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0375091168","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0497781366","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4613,16 +5028,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","323183521","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","124805232","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","584881448","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0713851988","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","323183521","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","124805232","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","584881448","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0713851988","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0597771870","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4663,16 +5083,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","941543096","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","218092427","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","829715981","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0151664092","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","941543096","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","218092427","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","829715981","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0636523443","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0159793400","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4713,16 +5138,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","384537672","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","242129741","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","424787253","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0746321614","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","384537672","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","242129741","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","424787253","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0900497827","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0770963545","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4763,16 +5193,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","342472612","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","522658514","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","552167703","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0130722813","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","342472612","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","522658514","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","552167703","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0130722813","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0565753913","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4813,16 +5248,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","190075444","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","172001781","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","867796157","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0557902200","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","190075444","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","172001781","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","867796157","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0364270976","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0582936414","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4863,16 +5303,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","616369148","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","597869022","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","776246671","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0875521989","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","616369148","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","597869022","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","776246671","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0236027798","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0355530233","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4913,16 +5358,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","167443115","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","334504150","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","621438891","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0866712811","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","167443115","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","334504150","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","621438891","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0866712811","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0983795614","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -4963,16 +5413,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","984471236","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","367636820","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","748193849","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0407214582","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","984471236","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","367636820","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","748193849","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0190366403","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0921034802","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5013,16 +5468,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","624618486","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","211020248","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","948194819","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0114568004","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","624618486","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","211020248","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","948194819","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0114568004","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0281439082","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5063,16 +5523,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","817516049","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","703105948","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","666381743","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0920731760","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","817516049","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","703105948","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","666381743","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0920731760","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0314629440","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5113,16 +5578,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","588077302","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","303223108","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","911947410","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0487990543","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","588077302","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","303223108","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","911947410","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0487990543","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0474511201","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5163,16 +5633,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","430510198","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","624742714","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","381738193","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0510032305","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","430510198","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","624742714","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","381738193","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0510032305","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0770262210","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5213,16 +5688,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","990048127","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","647192250","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","596218698","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0135100549","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","990048127","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","647192250","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","596218698","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0135100549","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0267971527","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5263,16 +5743,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","171201446","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","372760668","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","381937183","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0464851322","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","171201446","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","372760668","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","381937183","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0570841724","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0143796442","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5313,16 +5798,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","763729089","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","657180478","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","381391837","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0995167217","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","763729089","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","657180478","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","381391837","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0807783964","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0152317842","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5363,16 +5853,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","976198060","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","555793730","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","819370183","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0317707940","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","976198060","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","555793730","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","819370183","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0954186051","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0186714892","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5413,16 +5908,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","413005566","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","822902370","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","830371839","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0875370797","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","413005566","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","822902370","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","830371839","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0366621721","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0288834610","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5463,16 +5963,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","889309110","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","916274130","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","865508474","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0406584631","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","889309110","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","916274130","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","865508474","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0406584631","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0293649777","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5513,16 +6018,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","207535590","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","491862305","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","420482191","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0487985256","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","207535590","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","491862305","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","420482191","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0487985256","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0668338209","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5563,16 +6073,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","156624701","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","199168716","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","302615346","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0496925663","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","156624701","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","199168716","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","302615346","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0496925663","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0869590704","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5613,16 +6128,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","472174056","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","415931226","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","782885390","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0987782393","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","472174056","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","415931226","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","782885390","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0987782393","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0683963355","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5663,16 +6183,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","151732436","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","833287808","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","206040091","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0916791309","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","151732436","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","833287808","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","206040091","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0916791309","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0754971113","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5713,16 +6238,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","718153430","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","934421204","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","992505332","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0296834658","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","718153430","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","934421204","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","992505332","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0296834658","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0144333790","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5763,16 +6293,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","442454633","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","424574236","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","783918391","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0860531318","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","442454633","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","424574236","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","783918391","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0860531318","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0914496293","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5813,16 +6348,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","787120066","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","719311432","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","865121905","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0777875241","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","787120066","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","719311432","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","865121905","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0777875241","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0130635013","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5863,16 +6403,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","979424414","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","295052685","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","175118345","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0598661084","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","979424414","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","295052685","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","175118345","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0598661084","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0207477740","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5913,16 +6458,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","780162891","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","738473373","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","792686354","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0116836432","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","780162891","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","738473373","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","792686354","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0116836432","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0484409900","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -5963,16 +6513,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","483543994","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","370323106","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","128062619","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0682827160","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","483543994","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","370323106","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","128062619","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0682827160","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0118612301","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6013,16 +6568,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","979480425","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","602407474","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","883919301","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0276683169","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","979480425","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","602407474","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","883919301","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0276683169","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0742090677","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6063,16 +6623,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","964609166","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","229465464","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","425107310","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0785625914","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","964609166","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","229465464","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","425107310","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0785625914","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0457515750","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6113,16 +6678,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","633543603","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","497374807","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","651868910","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0195617159","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","633543603","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","497374807","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","651868910","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0195617159","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0216561031","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6163,16 +6733,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","761761539","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","463770096","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","538322932","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0148987050","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","761761539","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","463770096","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","538322932","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0148987050","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0643477873","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6213,16 +6788,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","496865242","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","737711264","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","471092781","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0616206983","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","496865242","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","737711264","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","471092781","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0616206983","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0332946497","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6263,16 +6843,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","694228404","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","342385886","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","306260926","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0477806391","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","694228404","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","342385886","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","306260926","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0477806391","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0592218823","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6313,16 +6898,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","924900960","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","667815569","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","666888665","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0587533782","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","924900960","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","667815569","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","666888665","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0587533782","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0381227771","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6363,16 +6953,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","609312996","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","218881326","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","401331391","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0726152644","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","609312996","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","218881326","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","401331391","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0726152644","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0185595540","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6413,16 +7008,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","835853451","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","512822190","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","383839193","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0981911701","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","835853451","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","512822190","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","383839193","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0981911701","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0247471852","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6463,16 +7063,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","422313676","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","697497471","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","278258138","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0141574692","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","422313676","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","323895123","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","278258138","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0141574692","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0396600487","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6513,16 +7118,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","301906889","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","472796042","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","395668497","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0266874510","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","301906889","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","751143558","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","395668497","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0266874510","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0137681995","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6563,16 +7173,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","226818546","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","964877549","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","938307900","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0899254021","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","226818546","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","596757868","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","938307900","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0899254021","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0937869234","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6613,16 +7228,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","552020872","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","781049626","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","284668963","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0297089595","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","552020872","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","116986452","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","284668963","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0297089595","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0647680330","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6663,16 +7283,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","849927220","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","623060823","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","291517902","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0704095300","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","849927220","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","151567513","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","291517902","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0704095300","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0171193774","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6713,16 +7338,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","122314698","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","615479640","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","810555748","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0634286227","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","122314698","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","656324933","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","810555748","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0634286227","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0718259365","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6763,16 +7393,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","374456509","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","618513192","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","721300290","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0300226610","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","374456509","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","715520920","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","721300290","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0300226610","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0674368142","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6813,16 +7448,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","546502274","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","378714499","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","859546300","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0196893723","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","546502274","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","904911130","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","859546300","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0196893723","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0686824342","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6863,16 +7503,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","646487560","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","901698781","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","176437893","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0408126479","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","646487560","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","307073175","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","176437893","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0408126479","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0595664839","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6913,16 +7558,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","508803336","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","554239075","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","792985840","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0840609431","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","508803336","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","182437079","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","792985840","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0840609431","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0347436227","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -6963,16 +7613,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","920770301","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","335106319","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","879857003","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0783494160","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","920770301","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","165292749","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","879857003","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0783494160","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0257054600","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7013,16 +7668,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","581263144","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","535332977","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","695638973","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0468392657","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","581263144","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","641343586","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","695638973","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0468392657","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0550308970","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7063,16 +7723,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","704802870","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","596537950","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","972158454","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0724483973","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","704802870","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","295845351","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","972158454","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0724483973","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0597194832","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7113,16 +7778,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","401913386","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","318811389","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","252111387","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0224697084","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","401913386","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","826440959","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","252111387","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0224697084","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0757505685","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7163,16 +7833,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","972799016","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","879817718","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","663828479","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0935483818","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","972799016","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","636454851","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","663828479","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0935483818","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0523704563","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7213,16 +7888,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","243486092","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","719264938","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","381426963","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0185948660","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","243486092","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","445497519","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","381426963","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0185948660","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0374685402","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7263,16 +7943,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","397309073","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","672775962","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","153954258","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0968352644","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","397309073","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","756733193","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","153954258","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0968352644","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0634681778","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7313,16 +7998,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","823233174","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","367817649","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","651333841","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0506412067","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","823233174","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","761851540","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","651333841","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0506412067","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0641808817","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7363,16 +8053,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","544698117","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","278237608","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","158124317","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0357501484","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","544698117","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","667418588","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","158124317","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0357501484","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0204617012","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7413,16 +8108,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","431038907","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","682109757","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","884708714","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0407506526","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","431038907","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","420510330","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","884708714","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0407506526","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0445141745","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7463,16 +8163,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","292849299","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","149840956","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","456949576","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0742194904","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","292849299","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","149840956","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","456949576","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0742194904","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0734292596","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7513,16 +8218,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","593111069","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","883442808","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","505467295","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0970616224","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","593111069","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","883442808","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","505467295","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0970616224","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0567900565","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7563,16 +8273,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","205524322","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","909693187","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","792821335","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0496191853","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","205524322","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","909693187","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","792821335","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0496191853","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0342966136","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7613,16 +8328,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","643665067","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","908968284","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","734007165","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0850331230","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","643665067","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","908968284","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","734007165","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0850331230","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0267221863","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7663,16 +8383,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","457394864","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","555066809","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","917352261","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0276788716","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","457394864","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","555066809","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","917352261","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0276788716","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0119708889","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7713,16 +8438,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","140399490","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","703644674","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","240635312","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0167025818","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","140399490","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","703644674","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","240635312","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0167025818","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0860008975","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7763,16 +8493,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","658143285","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","154653184","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","410701292","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0480702771","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","658143285","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","154653184","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","410701292","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0480702771","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0770906492","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7813,16 +8548,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","271655921","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","366900362","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","522364576","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0545462275","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","271655921","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","366900362","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","522364576","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0545462275","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0442703288","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7863,16 +8603,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","487280163","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","908365831","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","712625704","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0496268993","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","487280163","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","908365831","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","712625704","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0496268993","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0593777129","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7913,16 +8658,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","240520776","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","542481201","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","356256709","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0745426867","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","240520776","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","542481201","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","356256709","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0745426867","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0530458952","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -7963,16 +8713,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","962502983","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","541450074","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","518870079","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0249459133","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","962502983","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","289147743","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","518870079","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0249459133","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0965243129","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8013,16 +8768,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","453103222","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","191618728","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","437013375","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0411992228","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","453103222","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","460677052","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","437013375","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0411992228","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0530434386","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8063,16 +8823,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","143143253","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","972762575","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","195882049","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0304052653","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","143143253","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","723868809","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","195882049","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0304052653","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0502754103","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8113,16 +8878,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","744707531","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","348799724","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","896643848","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0834806237","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","744707531","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","671200897","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","896643848","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0834806237","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0160044580","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8163,16 +8933,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","794467945","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","537256200","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","621582422","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0989901863","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","794467945","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","610826027","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","621582422","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0989901863","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0405957591","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8213,16 +8988,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","700171998","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","378278068","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","158744750","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0439673548","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","700171998","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","523750063","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","158744750","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0439673548","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0907131640","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8263,16 +9043,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","755714392","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","500129775","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","400036822","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0174201306","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","755714392","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","975555535","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","400036822","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0174201306","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0594372056","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8313,16 +9098,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","284277021","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","687142107","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","956533295","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0969572130","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","284277021","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","842569998","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","956533295","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0969572130","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0475423584","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8363,16 +9153,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","281582136","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","757588136","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","899211552","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0349444548","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","281582136","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","161366448","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","899211552","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0349444548","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0832582346","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8413,16 +9208,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","263061936","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","234661111","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","334468146","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0832419521","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","263061936","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","379959357","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","334468146","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0832419521","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0171783928","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8463,16 +9263,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","571991052","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","909346315","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","503194580","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0637116218","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","571991052","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","915734327","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","503194580","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0637116218","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0255428375","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8513,16 +9318,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","882583955","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","839936029","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","255821478","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0855100318","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","882583955","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","984083471","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","255821478","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0855100318","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0580809466","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8563,16 +9373,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","579525084","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","757156741","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","521385067","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0116350578","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","579525084","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","916861589","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","521385067","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0116350578","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0981783981","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8613,16 +9428,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","996333186","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","913431434","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","281410719","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0823772641","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","996333186","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","116453772","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","281410719","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0823772641","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0304845735","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8663,16 +9483,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","124400257","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","363364627","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","113573002","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0113910652","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","124400257","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","799085624","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","113573002","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0113910652","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0705749319","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8713,16 +9538,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","272747479","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","114776996","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","322198797","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0803905171","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","272747479","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","660229632","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","322198797","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0803905171","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0704882865","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8763,16 +9593,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","336531780","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","138556717","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","953472072","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0670796800","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","336531780","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","192240429","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","953472072","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0670796800","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0383439203","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8813,16 +9648,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","982723166","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","269784993","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","881790321","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0483920523","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","982723166","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","775674431","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","881790321","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0483920523","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0710935132","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8863,16 +9703,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","314056234","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","456098446","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","921110390","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0780368583","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","314056234","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","732450029","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","921110390","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0780368583","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0510968487","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8913,16 +9758,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","168032475","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","255269232","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","817446282","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0240574214","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","168032475","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","593294085","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","817446282","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0240574214","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0366377492","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -8963,16 +9813,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","204332627","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","686895598","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","794096714","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0580174408","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","204332627","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","135881889","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","794096714","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0580174408","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0147522631","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9013,16 +9868,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","132255448","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","803134808","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","665985669","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0807457344","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","132255448","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","778855981","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","665985669","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0807457344","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0330177088","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9063,16 +9923,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","868839114","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","682551273","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","887987470","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0617959629","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","868839114","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","361223377","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","887987470","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0617959629","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0701039325","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9113,16 +9978,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","986106343","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","480676805","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","902601827","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0712668166","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","986106343","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","628634754","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","902601827","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0712668166","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0265442907","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9163,16 +10033,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","259897960","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","973269164","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","787231227","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0147573202","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","259897960","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","687903569","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","787231227","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0147573202","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0501381851","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9213,16 +10088,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","187114333","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","962134277","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","855783751","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0368484938","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","187114333","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","376089153","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","855783751","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0368484938","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0865310787","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9263,16 +10143,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","389972090","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","199482927","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","930472082","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0980388610","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","389972090","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","897207198","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","930472082","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0980388610","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0289213592","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9313,16 +10198,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","588287311","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","364455596","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","436611321","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0467183696","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","588287311","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","344858874","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","436611321","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0467183696","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0972642698","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9363,16 +10253,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","491334792","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","291291426","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","293938208","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0962847175","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","491334792","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","312590418","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","293938208","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0962847175","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0914232752","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9413,16 +10308,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","914322190","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","168325167","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","972849176","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0188154324","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","914322190","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","624599394","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","972849176","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0188154324","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0950326257","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9463,16 +10363,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","448170142","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","255685469","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","728645459","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0758497184","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","448170142","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","842216637","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","728645459","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0758497184","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0299586209","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9513,16 +10418,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","238130293","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","540368150","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","471813849","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0746794537","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","238130293","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","635643004","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","471813849","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0746794537","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0502203663","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9563,16 +10473,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","818123589","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","405708200","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","869791353","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0440554968","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","818123589","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","382269623","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","869791353","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0440554968","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0972964281","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9613,16 +10528,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","647596344","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","511967644","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","153784990","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0623811155","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","647596344","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","137347595","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","153784990","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0623811155","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0559485294","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9663,16 +10583,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","243384879","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","757219096","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","784918493","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0119564794","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","243384879","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","731366225","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","784918493","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0119564794","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0641340663","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9713,16 +10638,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","321369674","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","559238305","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","849000494","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0749148639","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","321369674","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","955389234","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","849000494","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0749148639","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0343110954","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9763,16 +10693,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","460500526","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","423954304","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","890111730","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0958409188","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","460500526","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","351221889","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","890111730","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0958409188","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0972822051","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9813,16 +10748,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","969102781","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","378749090","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","354748390","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0169637670","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","969102781","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","167843910","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","354748390","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0169637670","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0234227997","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9863,16 +10803,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","978454691","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","142122918","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","188209750","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0606951855","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","978454691","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","772905507","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","188209750","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0606951855","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0870087266","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9913,16 +10858,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","956911495","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","355680748","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","247385849","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0453784650","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","956911495","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","980806475","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","247385849","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0453784650","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0814178523","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -9963,16 +10913,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","845187198","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","902958000","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","422748665","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0422541907","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","845187198","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","480615620","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","422748665","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0422541907","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0680462558","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -10013,16 +10968,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","201164282","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","338362065","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","298597327","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0722746196","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","201164282","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","726405665","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","298597327","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0722746196","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0789667208","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -10063,16 +11023,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","316587494","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","834110046","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","728304177","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0112590670","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","316587494","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","397760480","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","728304177","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0112590670","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0828942520","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -10113,16 +11078,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","910686601","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","669037141","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","542510348","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0921403408","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","910686601","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","972623294","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","542510348","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0921403408","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0373981827","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -10163,16 +11133,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","301509337","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","936056694","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","363768557","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0437456634","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","301509337","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","858957273","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","363768557","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0437456634","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0915238961","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -10213,16 +11188,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","729542646","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","220030228","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","718718439","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0449408394","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","729542646","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","691319655","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","718718439","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0449408394","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0718796976","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -10263,16 +11243,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","873332683","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","630641391","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","406262189","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0878058493","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","873332683","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","673778218","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","406262189","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0878058493","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0808699794","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -10313,16 +11298,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","200737810","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","848773605","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","981585264","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0431515968","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","200737810","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","125979609","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","981585264","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0431515968","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0420184490","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -10363,16 +11353,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","118787085","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","519909747","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","837930902","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0193432328","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","118787085","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","251613477","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","837930902","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0193432328","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0588502213","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,
@@ -10413,16 +11408,21 @@
 Profile ID,Name,Site,Hotkey,,,
 ### AUTOFILL RULES ###,,,,,,
 Rule ID,Type,Name,Value,Site,Mode,Profile
-r1,0,"^Điện thoại$","781478023","92lottery.com/",1,
-r2,0,"^Mật khẩu$","GiaMinh123","92lottery.com/",1,
-r3,0,"^userNumber$","522682255","vn168-1.com/",1,
-r4,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vn168-1.com/",1,
-r5,1,"\[type=""password""\]","GiaMinh123","vn168-1.com/",1,
-r6,0,"^userNumber$","293134513","vesovn.cc/",1,
-r7,0,".passwordInput__container-input &gt; \[type=""text""\]","GiaMinh123","vesovn.cc/",1,
-r8,1,"\[type=""password""\]","GiaMinh123","vesovn.cc/",1,
-r9,0,"^Tên đăng nhập hoặc SĐT$","0994611596","82vn.com/",1,
-r10,1,"^Mật khẩu$","GiaMinh123","82vn.com/",1,
+r24,0,"^userNumber$","781478023","92lottery.com/",1,
+r11,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r12,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-b0ac9d23\]","GiaMinh123","92lottery.com/",1,
+r13,0,"^userNumber$","174376115","vn168-1.com/",1,
+r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
+r25,0,"^userNumber$","293134513","vesovn.cc/",1,
+r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
+r19,0,"^userEmail$","0994611596","82vn.com/",1,
+r18,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r20,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-34ec8998\]","GiaMinh123","82vn.com/",1,
+r22,0,"^userEmail$","0318964978","66club.com/",1,
+r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
+r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
 advanced,"[]",,,,,
 exceptions,"[]",,,,,

--- a/tools/autofill/data/autofill.xlsx
+++ b/tools/autofill/data/autofill.xlsx
@@ -472,13 +472,13 @@
 r24,0,"^userNumber$","944045588","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","500778264","vn168-1.com/",1,
+r13,0,"^userNumber$","831738188","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","871839091","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","479588076","82vn.com/",1,
+r19,0,"^userNumber$","155056869","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","463102188","66club.com/",1,
@@ -527,13 +527,13 @@
 r24,0,"^userNumber$","485979104","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","901020025","vn168-1.com/",1,
+r13,0,"^userNumber$","201644748","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","892001031","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","248352748","82vn.com/",1,
+r19,0,"^userNumber$","178565050","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","703722024","66club.com/",1,
@@ -582,13 +582,13 @@
 r24,0,"^userNumber$","625677577","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","568451719","vn168-1.com/",1,
+r13,0,"^userNumber$","350454882","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","501164279","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","915756895","82vn.com/",1,
+r19,0,"^userNumber$","478809692","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","119458976","66club.com/",1,
@@ -637,13 +637,13 @@
 r24,0,"^userNumber$","887037774","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","454713887","vn168-1.com/",1,
+r13,0,"^userNumber$","200368016","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","966103845","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","674625205","82vn.com/",1,
+r19,0,"^userNumber$","651686578","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","469270826","66club.com/",1,
@@ -692,13 +692,13 @@
 r24,0,"^userNumber$","323940398","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","499983030","vn168-1.com/",1,
+r13,0,"^userNumber$","144834379","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","165600448","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","620044121","82vn.com/",1,
+r19,0,"^userNumber$","998336815","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","823638372","66club.com/",1,
@@ -747,13 +747,13 @@
 r24,0,"^userNumber$","634809733","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","831117263","vn168-1.com/",1,
+r13,0,"^userNumber$","155056869","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","738183819","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","580527467","82vn.com/",1,
+r19,0,"^userNumber$","614379306","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","418613327","66club.com/",1,
@@ -802,13 +802,13 @@
 r24,0,"^userNumber$","373829704","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","600647865","vn168-1.com/",1,
+r13,0,"^userNumber$","178565050","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","747396456","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","174483764","82vn.com/",1,
+r19,0,"^userNumber$","881063838","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","884564806","66club.com/",1,
@@ -857,13 +857,13 @@
 r24,0,"^userNumber$","608989766","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","916540909","vn168-1.com/",1,
+r13,0,"^userNumber$","478809692","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","809736430","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","396218757","82vn.com/",1,
+r19,0,"^userNumber$","918305266","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","295334432","66club.com/",1,
@@ -912,13 +912,13 @@
 r24,0,"^userNumber$","487350346","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","492204867","vn168-1.com/",1,
+r13,0,"^userNumber$","651686578","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","954300234","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","384606527","82vn.com/",1,
+r19,0,"^userNumber$","554781883","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","589420813","66club.com/",1,
@@ -967,13 +967,13 @@
 r24,0,"^userNumber$","169717833","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","121094546","vn168-1.com/",1,
+r13,0,"^userNumber$","998336815","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","425377978","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","819733673","82vn.com/",1,
+r19,0,"^userNumber$","387896150","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","913683262","66club.com/",1,
@@ -1022,13 +1022,13 @@
 r24,0,"^userNumber$","701789015","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","705293046","vn168-1.com/",1,
+r13,0,"^userNumber$","614379306","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","565047811","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","276315052","82vn.com/",1,
+r19,0,"^userNumber$","757516759","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","956564689","66club.com/",1,
@@ -1077,13 +1077,13 @@
 r24,0,"^userNumber$","114483130","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","248017136","vn168-1.com/",1,
+r13,0,"^userNumber$","881063838","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","946128911","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","237894704","82vn.com/",1,
+r19,0,"^userNumber$","886941130","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","251875502","66club.com/",1,
@@ -1132,13 +1132,13 @@
 r24,0,"^userNumber$","171416414","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","560932983","vn168-1.com/",1,
+r13,0,"^userNumber$","918305266","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","342981865","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","506202781","82vn.com/",1,
+r19,0,"^userNumber$","645454705","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","329487067","66club.com/",1,
@@ -1187,13 +1187,13 @@
 r24,0,"^userNumber$","858315952","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","352233761","vn168-1.com/",1,
+r13,0,"^userNumber$","554781883","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","891005636","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","279775807","82vn.com/",1,
+r19,0,"^userNumber$","299839522","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","997616556","66club.com/",1,
@@ -1242,13 +1242,13 @@
 r24,0,"^userNumber$","136348511","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","868887614","vn168-1.com/",1,
+r13,0,"^userNumber$","387896150","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","358528181","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","660150579","82vn.com/",1,
+r19,0,"^userNumber$","231884830","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","444113274","66club.com/",1,
@@ -1297,13 +1297,13 @@
 r24,0,"^userNumber$","486673262","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","391077322","vn168-1.com/",1,
+r13,0,"^userNumber$","757516759","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","839148381","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","491496742","82vn.com/",1,
+r19,0,"^userNumber$","533785989","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","754121992","66club.com/",1,
@@ -1352,13 +1352,13 @@
 r24,0,"^userNumber$","398445350","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","494974790","vn168-1.com/",1,
+r13,0,"^userNumber$","886941130","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","474165766","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","647528263","82vn.com/",1,
+r19,0,"^userNumber$","473430054","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","915875213","66club.com/",1,
@@ -1407,13 +1407,13 @@
 r24,0,"^userNumber$","764010101","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","603525670","vn168-1.com/",1,
+r13,0,"^userNumber$","215192023","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","493530560","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","215192023","82vn.com/",1,
+r19,0,"^userNumber$","183683228","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","682311704","66club.com/",1,
@@ -1462,13 +1462,13 @@
 r24,0,"^userNumber$","820897560","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","171990956","vn168-1.com/",1,
+r13,0,"^userNumber$","645454705","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","903247907","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","971370825","82vn.com/",1,
+r19,0,"^userNumber$","829566644","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","324466443","66club.com/",1,
@@ -1517,13 +1517,13 @@
 r24,0,"^userNumber$","303276696","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","529785577","vn168-1.com/",1,
+r13,0,"^userNumber$","299839522","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","263429788","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","912269844","82vn.com/",1,
+r19,0,"^userNumber$","149785946","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","718532447","66club.com/",1,
@@ -1572,13 +1572,13 @@
 r24,0,"^userNumber$","704922962","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","807516661","vn168-1.com/",1,
+r13,0,"^userNumber$","231884830","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","738192030","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","558941090","82vn.com/",1,
+r19,0,"^userNumber$","935251143","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","609339931","66club.com/",1,
@@ -1627,13 +1627,13 @@
 r24,0,"^userNumber$","844029772","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","526472312","vn168-1.com/",1,
+r13,0,"^userNumber$","533785989","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","330350711","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","222281182","82vn.com/",1,
+r19,0,"^userNumber$","436927399","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","782570829","66club.com/",1,
@@ -1682,13 +1682,13 @@
 r24,0,"^userNumber$","708163769","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","637119884","vn168-1.com/",1,
+r13,0,"^userNumber$","473430054","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","198243741","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","637119884","82vn.com/",1,
+r19,0,"^userNumber$","940390744","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","894650887","66club.com/",1,
@@ -1737,13 +1737,13 @@
 r24,0,"^userNumber$","911343913","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","350410160","vn168-1.com/",1,
+r13,0,"^userNumber$","183683228","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","388030853","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","854251916","82vn.com/",1,
+r19,0,"^userNumber$","507723217","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","540529441","66club.com/",1,
@@ -1792,13 +1792,13 @@
 r24,0,"^userNumber$","292694197","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","780054139","vn168-1.com/",1,
+r13,0,"^userNumber$","829566644","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","688190691","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","782921025","82vn.com/",1,
+r19,0,"^userNumber$","949358144","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","441439035","66club.com/",1,
@@ -1847,13 +1847,13 @@
 r24,0,"^userNumber$","191523036","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","918750576","vn168-1.com/",1,
+r13,0,"^userNumber$","149785946","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","886924926","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","967074212","82vn.com/",1,
+r19,0,"^userNumber$","782786806","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","343471201","66club.com/",1,
@@ -1902,13 +1902,13 @@
 r24,0,"^userNumber$","418558548","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","653721572","vn168-1.com/",1,
+r13,0,"^userNumber$","935251143","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","489794703","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","556834689","82vn.com/",1,
+r19,0,"^userNumber$","551441330","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","327557120","66club.com/",1,
@@ -1957,13 +1957,13 @@
 r24,0,"^userNumber$","441778769","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","427760744","vn168-1.com/",1,
+r13,0,"^userNumber$","436927399","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","782081339","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","651598007","82vn.com/",1,
+r19,0,"^userNumber$","231674215","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","249374923","66club.com/",1,
@@ -2012,13 +2012,13 @@
 r24,0,"^userNumber$","452480751","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","217416215","vn168-1.com/",1,
+r13,0,"^userNumber$","940390744","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","266287806","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","711618529","82vn.com/",1,
+r19,0,"^userNumber$","340035573","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","235140153","66club.com/",1,
@@ -2067,13 +2067,13 @@
 r24,0,"^userNumber$","358629073","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","142033806","vn168-1.com/",1,
+r13,0,"^userNumber$","507723217","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","537173139","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","520472031","82vn.com/",1,
+r19,0,"^userNumber$","156958050","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","390562569","66club.com/",1,
@@ -2122,7 +2122,7 @@
 r24,0,"^userNumber$","483474911","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","194658099","vn168-1.com/",1,
+r13,0,"^userNumber$","949358144","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","642443167","vesovn.cc/",1,
@@ -2177,13 +2177,13 @@
 r24,0,"^userNumber$","144011104","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","323101105","vn168-1.com/",1,
+r13,0,"^userNumber$","782786806","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","123886425","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","422528057","82vn.com/",1,
+r19,0,"^userNumber$","759429308","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","500696405","66club.com/",1,
@@ -2232,13 +2232,13 @@
 r24,0,"^userNumber$","129805002","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","330143916","vn168-1.com/",1,
+r13,0,"^userNumber$","551441330","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","578990063","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","801874061","82vn.com/",1,
+r19,0,"^userNumber$","654570307","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","520159651","66club.com/",1,
@@ -2287,13 +2287,13 @@
 r24,0,"^userNumber$","265971756","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","938468580","vn168-1.com/",1,
+r13,0,"^userNumber$","231674215","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","230388462","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","824221360","82vn.com/",1,
+r19,0,"^userNumber$","291988596","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","696819714","66club.com/",1,
@@ -2342,13 +2342,13 @@
 r24,0,"^userNumber$","201230654","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","227007395","vn168-1.com/",1,
+r13,0,"^userNumber$","340035573","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","579423567","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","247899498","82vn.com/",1,
+r19,0,"^userNumber$","542083921","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","383727489","66club.com/",1,
@@ -2397,13 +2397,13 @@
 r24,0,"^userNumber$","974279673","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","979819704","vn168-1.com/",1,
+r13,0,"^userNumber$","156958050","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","407333675","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","642434568","82vn.com/",1,
+r19,0,"^userNumber$","340304780","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","557623905","66club.com/",1,
@@ -2452,13 +2452,13 @@
 r24,0,"^userNumber$","310108346","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","362739573","vn168-1.com/",1,
+r13,0,"^userNumber$","759429308","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","784539737","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","478462598","82vn.com/",1,
+r19,0,"^userNumber$","224760219","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","429974736","66club.com/",1,
@@ -2507,13 +2507,13 @@
 r24,0,"^userNumber$","931815567","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","881728183","vn168-1.com/",1,
+r13,0,"^userNumber$","654570307","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","458008635","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","550093474","82vn.com/",1,
+r19,0,"^userNumber$","783886583","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","597952434","66club.com/",1,
@@ -2562,13 +2562,13 @@
 r24,0,"^userNumber$","559723571","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","713909144","vn168-1.com/",1,
+r13,0,"^userNumber$","291988596","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","479975346","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","697645066","82vn.com/",1,
+r19,0,"^userNumber$","639373340","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","865692468","66club.com/",1,
@@ -2617,13 +2617,13 @@
 r24,0,"^userNumber$","638790665","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","698351574","vn168-1.com/",1,
+r13,0,"^userNumber$","542083921","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","688871880","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","929727636","82vn.com/",1,
+r19,0,"^userNumber$","783148204","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","929727636","66club.com/",1,
@@ -2672,13 +2672,13 @@
 r24,0,"^userNumber$","202691624","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","260782765","vn168-1.com/",1,
+r13,0,"^userNumber$","340304780","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","679526983","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","734629698","82vn.com/",1,
+r19,0,"^userNumber$","436536525","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","637068355","66club.com/",1,
@@ -2727,13 +2727,13 @@
 r24,0,"^userNumber$","284582740","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","852209635","vn168-1.com/",1,
+r13,0,"^userNumber$","224760219","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","686333926","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","464452491","82vn.com/",1,
+r19,0,"^userNumber$","941331138","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","919794057","66club.com/",1,
@@ -2782,13 +2782,13 @@
 r24,0,"^userNumber$","650305492","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","933460113","vn168-1.com/",1,
+r13,0,"^userNumber$","783886583","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","272031396","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","767697337","82vn.com/",1,
+r19,0,"^userNumber$","917009164","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","663755788","66club.com/",1,
@@ -2837,13 +2837,13 @@
 r24,0,"^userNumber$","289912400","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","959218924","vn168-1.com/",1,
+r13,0,"^userNumber$","639373340","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","360354402","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","452938644","82vn.com/",1,
+r19,0,"^userNumber$","685827584","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","218285694","66club.com/",1,
@@ -2892,13 +2892,13 @@
 r24,0,"^userNumber$","544251504","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","917158629","vn168-1.com/",1,
+r13,0,"^userNumber$","783148204","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","254166683","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","130737048","82vn.com/",1,
+r19,0,"^userNumber$","423650550","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","824806080","66club.com/",1,
@@ -2947,13 +2947,13 @@
 r24,0,"^userNumber$","809409954","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","483276993","vn168-1.com/",1,
+r13,0,"^userNumber$","436536525","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","516928880","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","845807121","82vn.com/",1,
+r19,0,"^userNumber$","476267527","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","696940239","66club.com/",1,
@@ -3002,13 +3002,13 @@
 r24,0,"^userNumber$","352415665","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","218476285","vn168-1.com/",1,
+r13,0,"^userNumber$","941331138","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","117264904","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","777701272","82vn.com/",1,
+r19,0,"^userNumber$","919593990","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","147618190","66club.com/",1,
@@ -3057,13 +3057,13 @@
 r24,0,"^userNumber$","129990935","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","540657341","vn168-1.com/",1,
+r13,0,"^userNumber$","917009164","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","827263955","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","826917957","82vn.com/",1,
+r19,0,"^userNumber$","466490192","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","623529747","66club.com/",1,
@@ -3112,13 +3112,13 @@
 r24,0,"^userNumber$","378376559","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","777442754","vn168-1.com/",1,
+r13,0,"^userNumber$","685827584","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","835037384","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","955152952","82vn.com/",1,
+r19,0,"^userNumber$","412578178","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","441740420","66club.com/",1,
@@ -3167,13 +3167,13 @@
 r24,0,"^userNumber$","405290701","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","241069907","vn168-1.com/",1,
+r13,0,"^userNumber$","423650550","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","413908769","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","337446264","82vn.com/",1,
+r19,0,"^userNumber$","864703588","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","227261791","66club.com/",1,
@@ -3222,13 +3222,13 @@
 r24,0,"^userNumber$","562438552","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","171804328","vn168-1.com/",1,
+r13,0,"^userNumber$","476267527","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","257993674","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","418269586","82vn.com/",1,
+r19,0,"^userNumber$","888998578","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","174631787","66club.com/",1,
@@ -3277,13 +3277,13 @@
 r24,0,"^userNumber$","594905404","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","265509118","vn168-1.com/",1,
+r13,0,"^userNumber$","919593990","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","357293473","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","731998218","82vn.com/",1,
+r19,0,"^userNumber$","257429152","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","504412411","66club.com/",1,
@@ -3332,13 +3332,13 @@
 r24,0,"^userNumber$","730735189","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","227912620","vn168-1.com/",1,
+r13,0,"^userNumber$","466490192","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","131773467","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","818198857","82vn.com/",1,
+r19,0,"^userNumber$","422743566","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","203756218","66club.com/",1,
@@ -3387,13 +3387,13 @@
 r24,0,"^userNumber$","260773217","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","311114040","vn168-1.com/",1,
+r13,0,"^userNumber$","412578178","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","438193883","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","671690605","82vn.com/",1,
+r19,0,"^userNumber$","795957874","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","677921835","66club.com/",1,
@@ -3442,13 +3442,13 @@
 r24,0,"^userNumber$","539729438","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","786560462","vn168-1.com/",1,
+r13,0,"^userNumber$","864703588","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","939103010","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","862931369","82vn.com/",1,
+r19,0,"^userNumber$","872077767","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","514364996","66club.com/",1,
@@ -3497,13 +3497,13 @@
 r24,0,"^userNumber$","790350614","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","687961826","vn168-1.com/",1,
+r13,0,"^userNumber$","888998578","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","696201167","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","307335228","82vn.com/",1,
+r19,0,"^userNumber$","807233402","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","233002291","66club.com/",1,
@@ -3552,13 +3552,13 @@
 r24,0,"^userNumber$","579721944","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","899014440","vn168-1.com/",1,
+r13,0,"^userNumber$","257429152","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","436535772","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","151010307","82vn.com/",1,
+r19,0,"^userNumber$","202672745","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","890199273","66club.com/",1,
@@ -3607,13 +3607,13 @@
 r24,0,"^userNumber$","126496161","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","139702768","vn168-1.com/",1,
+r13,0,"^userNumber$","422743566","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","356519238","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","419664694","82vn.com/",1,
+r19,0,"^userNumber$","283741017","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","157312357","66club.com/",1,
@@ -3662,13 +3662,13 @@
 r24,0,"^userNumber$","714453445","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","421671903","vn168-1.com/",1,
+r13,0,"^userNumber$","795957874","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","229590522","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","885279039","82vn.com/",1,
+r19,0,"^userNumber$","734262077","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","393065150","66club.com/",1,
@@ -3717,13 +3717,13 @@
 r24,0,"^userNumber$","660257329","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","526652828","vn168-1.com/",1,
+r13,0,"^userNumber$","872077767","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","860016550","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","721400502","82vn.com/",1,
+r19,0,"^userNumber$","398249993","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","687175345","66club.com/",1,
@@ -3772,13 +3772,13 @@
 r24,0,"^userNumber$","307919374","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","588017337","vn168-1.com/",1,
+r13,0,"^userNumber$","807233402","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","673913039","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","535264162","82vn.com/",1,
+r19,0,"^userNumber$","260642207","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","977526918","66club.com/",1,
@@ -3827,13 +3827,13 @@
 r24,0,"^userNumber$","183157233","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","761184126","vn168-1.com/",1,
+r13,0,"^userNumber$","202672745","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","938402009","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","245394337","82vn.com/",1,
+r19,0,"^userNumber$","234721741","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","227221472","66club.com/",1,
@@ -3882,13 +3882,13 @@
 r24,0,"^userNumber$","990250725","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","926540509","vn168-1.com/",1,
+r13,0,"^userNumber$","283741017","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","479588076","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","968252140","82vn.com/",1,
+r19,0,"^userNumber$","223807728","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","919004964","66club.com/",1,
@@ -3937,13 +3937,13 @@
 r24,0,"^userNumber$","423185080","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","814917178","vn168-1.com/",1,
+r13,0,"^userNumber$","734262077","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","892672169","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","550897796","82vn.com/",1,
+r19,0,"^userNumber$","315547858","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","965722644","66club.com/",1,
@@ -3992,13 +3992,13 @@
 r24,0,"^userNumber$","744211407","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","502766229","vn168-1.com/",1,
+r13,0,"^userNumber$","398249993","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","440437680","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","531265213","82vn.com/",1,
+r19,0,"^userNumber$","745829808","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","234748172","66club.com/",1,
@@ -4047,13 +4047,13 @@
 r24,0,"^userNumber$","440488256","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","677579301","vn168-1.com/",1,
+r13,0,"^userNumber$","260642207","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","650230112","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","160072448","82vn.com/",1,
+r19,0,"^userNumber$","430862898","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","139437643","66club.com/",1,
@@ -4102,13 +4102,13 @@
 r24,0,"^userNumber$","513109547","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","323954425","vn168-1.com/",1,
+r13,0,"^userNumber$","234721741","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","128646655","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","696096862","82vn.com/",1,
+r19,0,"^userNumber$","440403049","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","688761798","66club.com/",1,
@@ -4157,13 +4157,13 @@
 r24,0,"^userNumber$","785611800","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","582374392","vn168-1.com/",1,
+r13,0,"^userNumber$","223807728","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","620394742","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","408760993","82vn.com/",1,
+r19,0,"^userNumber$","367328459","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","178223620","66club.com/",1,
@@ -4212,13 +4212,13 @@
 r24,0,"^userNumber$","636419334","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","857228943","vn168-1.com/",1,
+r13,0,"^userNumber$","315547858","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","270961927","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","348333283","82vn.com/",1,
+r19,0,"^userNumber$","620528507","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","346760991","66club.com/",1,
@@ -4267,13 +4267,13 @@
 r24,0,"^userNumber$","589790276","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","824566424","vn168-1.com/",1,
+r13,0,"^userNumber$","745829808","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","248352748","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","196449683","82vn.com/",1,
+r19,0,"^userNumber$","534734701","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","196449683","66club.com/",1,
@@ -4322,13 +4322,13 @@
 r24,0,"^userNumber$","843974143","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","657307151","vn168-1.com/",1,
+r13,0,"^userNumber$","430862898","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","294539994","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","270583293","82vn.com/",1,
+r19,0,"^userNumber$","717521602","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","441318934","66club.com/",1,
@@ -4377,13 +4377,13 @@
 r24,0,"^userNumber$","330802216","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","971527271","vn168-1.com/",1,
+r13,0,"^userNumber$","440403049","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","233587070","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","627097204","82vn.com/",1,
+r19,0,"^userNumber$","522799453","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","569152003","66club.com/",1,
@@ -4432,13 +4432,13 @@
 r24,0,"^userNumber$","374365828","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","218386646","vn168-1.com/",1,
+r13,0,"^userNumber$","367328459","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","191233347","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","383442664","82vn.com/",1,
+r19,0,"^userNumber$","315715340","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","379090646","66club.com/",1,
@@ -4487,13 +4487,13 @@
 r24,0,"^userNumber$","358449716","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","645992766","vn168-1.com/",1,
+r13,0,"^userNumber$","620528507","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","934691563","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","603885618","82vn.com/",1,
+r19,0,"^userNumber$","680892087","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","556907292","66club.com/",1,
@@ -4542,13 +4542,13 @@
 r24,0,"^userNumber$","244316016","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","954191116","vn168-1.com/",1,
+r13,0,"^userNumber$","534734701","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","768648759","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","789363144","82vn.com/",1,
+r19,0,"^userNumber$","809270514","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","443717927","66club.com/",1,
@@ -4597,13 +4597,13 @@
 r24,0,"^userNumber$","510582348","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","492524743","vn168-1.com/",1,
+r13,0,"^userNumber$","717521602","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","690016321","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","961232010","82vn.com/",1,
+r19,0,"^userNumber$","362742515","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","226133346","66club.com/",1,
@@ -4652,13 +4652,13 @@
 r24,0,"^userNumber$","791085124","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","282663664","vn168-1.com/",1,
+r13,0,"^userNumber$","522799453","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","139326701","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","845183775","82vn.com/",1,
+r19,0,"^userNumber$","994243302","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","228261913","66club.com/",1,
@@ -4707,13 +4707,13 @@
 r24,0,"^userNumber$","457391593","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","779112155","vn168-1.com/",1,
+r13,0,"^userNumber$","315715340","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","625968806","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","754900215","82vn.com/",1,
+r19,0,"^userNumber$","493077917","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","866403139","66club.com/",1,
@@ -4762,13 +4762,13 @@
 r24,0,"^userNumber$","138931653","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","662078781","vn168-1.com/",1,
+r13,0,"^userNumber$","680892087","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","616750285","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","939847720","82vn.com/",1,
+r19,0,"^userNumber$","792893654","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","914387642","66club.com/",1,
@@ -4817,13 +4817,13 @@
 r24,0,"^userNumber$","723771132","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","613164676","vn168-1.com/",1,
+r13,0,"^userNumber$","809270514","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","924762163","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","946253285","82vn.com/",1,
+r19,0,"^userNumber$","528457713","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","307168125","66club.com/",1,
@@ -4872,13 +4872,13 @@
 r24,0,"^userNumber$","683265647","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","288737749","vn168-1.com/",1,
+r13,0,"^userNumber$","362742515","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","446339965","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","477907797","82vn.com/",1,
+r19,0,"^userNumber$","598874751","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","227211576","66club.com/",1,
@@ -4927,13 +4927,13 @@
 r24,0,"^userNumber$","949404898","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","916113269","vn168-1.com/",1,
+r13,0,"^userNumber$","994243302","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","494285315","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","262008696","82vn.com/",1,
+r19,0,"^userNumber$","371355255","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","181811302","66club.com/",1,
@@ -4982,13 +4982,13 @@
 r24,0,"^userNumber$","425264971","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","343227574","vn168-1.com/",1,
+r13,0,"^userNumber$","493077917","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","635457162","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","319707717","82vn.com/",1,
+r19,0,"^userNumber$","553818987","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","773781850","66club.com/",1,
@@ -5037,13 +5037,13 @@
 r24,0,"^userNumber$","938110743","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","514024551","vn168-1.com/",1,
+r13,0,"^userNumber$","792893654","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","193482507","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","733909708","82vn.com/",1,
+r19,0,"^userNumber$","984107492","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","767642200","66club.com/",1,
@@ -5092,13 +5092,13 @@
 r24,0,"^userNumber$","866490189","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","941106870","vn168-1.com/",1,
+r13,0,"^userNumber$","528457713","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","118009481","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","392777088","82vn.com/",1,
+r19,0,"^userNumber$","720882677","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","683654676","66club.com/",1,
@@ -5147,13 +5147,13 @@
 r24,0,"^userNumber$","631032129","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","720871869","vn168-1.com/",1,
+r13,0,"^userNumber$","598874751","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","424787253","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","273029950","82vn.com/",1,
+r19,0,"^userNumber$","480944603","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","439534423","66club.com/",1,
@@ -5202,13 +5202,13 @@
 r24,0,"^userNumber$","820253632","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","541813444","vn168-1.com/",1,
+r13,0,"^userNumber$","371355255","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","807646731","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","573136829","82vn.com/",1,
+r19,0,"^userNumber$","536979517","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","912131217","66club.com/",1,
@@ -5257,13 +5257,13 @@
 r24,0,"^userNumber$","980071443","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","832532278","vn168-1.com/",1,
+r13,0,"^userNumber$","553818987","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","575162992","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","194046638","82vn.com/",1,
+r19,0,"^userNumber$","564600634","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","419508379","66club.com/",1,
@@ -5312,13 +5312,13 @@
 r24,0,"^userNumber$","116429430","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","302990098","vn168-1.com/",1,
+r13,0,"^userNumber$","984107492","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","818203624","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","537957269","82vn.com/",1,
+r19,0,"^userNumber$","322341307","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","876713731","66club.com/",1,
@@ -5367,13 +5367,13 @@
 r24,0,"^userNumber$","924361009","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","798784214","vn168-1.com/",1,
+r13,0,"^userNumber$","720882677","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","190841538","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","922650824","82vn.com/",1,
+r19,0,"^userNumber$","378882740","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","861241703","66club.com/",1,
@@ -5422,13 +5422,13 @@
 r24,0,"^userNumber$","651844329","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","778832044","vn168-1.com/",1,
+r13,0,"^userNumber$","480944603","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","748193849","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","540296382","82vn.com/",1,
+r19,0,"^userNumber$","959421703","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","758733676","66club.com/",1,
@@ -5477,13 +5477,13 @@
 r24,0,"^userNumber$","645553155","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","352601122","vn168-1.com/",1,
+r13,0,"^userNumber$","536979517","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","948194819","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","129209468","82vn.com/",1,
+r19,0,"^userNumber$","743831242","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","701030000","66club.com/",1,
@@ -5532,13 +5532,13 @@
 r24,0,"^userNumber$","132734578","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","284674901","vn168-1.com/",1,
+r13,0,"^userNumber$","564600634","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","666381743","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","560974915","82vn.com/",1,
+r19,0,"^userNumber$","259290278","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","478960421","66club.com/",1,
@@ -5587,13 +5587,13 @@
 r24,0,"^userNumber$","150924232","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","530906631","vn168-1.com/",1,
+r13,0,"^userNumber$","322341307","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","911947410","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","793745926","82vn.com/",1,
+r19,0,"^userNumber$","746737957","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","972797275","66club.com/",1,
@@ -5642,13 +5642,13 @@
 r24,0,"^userNumber$","746246191","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","145064053","vn168-1.com/",1,
+r13,0,"^userNumber$","378882740","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","381738193","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","174417128","82vn.com/",1,
+r19,0,"^userNumber$","329389262","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","559602566","66club.com/",1,
@@ -5697,13 +5697,13 @@
 r24,0,"^userNumber$","952040030","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","868154742","vn168-1.com/",1,
+r13,0,"^userNumber$","959421703","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","596218698","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","406161961","82vn.com/",1,
+r19,0,"^userNumber$","831738188","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","887039593","66club.com/",1,
@@ -5752,13 +5752,13 @@
 r24,0,"^userNumber$","920187598","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","993179668","vn168-1.com/",1,
+r13,0,"^userNumber$","743831242","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","381937183","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","249672675","82vn.com/",1,
+r19,0,"^userNumber$","201644748","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","618415137","66club.com/",1,
@@ -5807,13 +5807,13 @@
 r24,0,"^userNumber$","908003505","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","980327583","vn168-1.com/",1,
+r13,0,"^userNumber$","259290278","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","381391837","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","451279165","82vn.com/",1,
+r19,0,"^userNumber$","350454882","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","555308269","66club.com/",1,
@@ -5862,13 +5862,13 @@
 r24,0,"^userNumber$","555914113","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","727157544","vn168-1.com/",1,
+r13,0,"^userNumber$","746737957","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","819370183","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","111676064","82vn.com/",1,
+r19,0,"^userNumber$","200368016","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","198243869","66club.com/",1,
@@ -5917,13 +5917,13 @@
 r24,0,"^userNumber$","159188686","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","526124814","vn168-1.com/",1,
+r13,0,"^userNumber$","329389262","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","830371839","vesovn.cc/",1,
 r16,1,"\[data-v-a761d0b2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
 r17,1,"\[data-v-584ff9a2\] &gt; div &gt; input\[data-v-934f92c4\]","GiaMinh123","vesovn.cc/",1,
-r19,0,"^userNumber$","288960617","82vn.com/",1,
+r19,0,"^userNumber$","144834379","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r22,0,"^userNumber$","293451292","66club.com/",1,
@@ -5972,7 +5972,7 @@
 r24,0,"^userNumber$","711701850","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","432191142","vn168-1.com/",1,
+r13,0,"^userNumber$","270760258","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","373637979","vesovn.cc/",1,
@@ -5981,7 +5981,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","181334534","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6027,7 +6027,7 @@
 r24,0,"^userNumber$","587946502","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","503177948","vn168-1.com/",1,
+r13,0,"^userNumber$","383686005","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","601399747","vesovn.cc/",1,
@@ -6036,7 +6036,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","740450605","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6082,7 +6082,7 @@
 r24,0,"^userNumber$","306067731","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","894415544","vn168-1.com/",1,
+r13,0,"^userNumber$","924178344","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","154351224","vesovn.cc/",1,
@@ -6091,7 +6091,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","405618046","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6137,7 +6137,7 @@
 r24,0,"^userNumber$","630142619","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","615094423","vn168-1.com/",1,
+r13,0,"^userNumber$","572799170","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","236499340","vesovn.cc/",1,
@@ -6146,7 +6146,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","547993456","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6192,7 +6192,7 @@
 r24,0,"^userNumber$","204468152","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","180993000","vn168-1.com/",1,
+r13,0,"^userNumber$","283501559","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","176708732","vesovn.cc/",1,
@@ -6201,7 +6201,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","592901642","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6247,7 +6247,7 @@
 r24,0,"^userNumber$","873640350","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","815608641","vn168-1.com/",1,
+r13,0,"^userNumber$","527227085","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","474837610","vesovn.cc/",1,
@@ -6256,7 +6256,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","494348846","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6302,7 +6302,7 @@
 r24,0,"^userNumber$","375918139","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","405299992","vn168-1.com/",1,
+r13,0,"^userNumber$","303642007","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","982659264","vesovn.cc/",1,
@@ -6311,7 +6311,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","688849546","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6357,7 +6357,7 @@
 r24,0,"^userNumber$","856733469","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","787461392","vn168-1.com/",1,
+r13,0,"^userNumber$","662644771","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","399217503","vesovn.cc/",1,
@@ -6366,7 +6366,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","211803041","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6412,7 +6412,7 @@
 r24,0,"^userNumber$","999463769","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","626414594","vn168-1.com/",1,
+r13,0,"^userNumber$","835358909","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","687284385","vesovn.cc/",1,
@@ -6421,7 +6421,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","754774041","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6467,7 +6467,7 @@
 r24,0,"^userNumber$","308041953","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","303655050","vn168-1.com/",1,
+r13,0,"^userNumber$","556425450","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","997351535","vesovn.cc/",1,
@@ -6476,7 +6476,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","238626728","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6522,7 +6522,7 @@
 r24,0,"^userNumber$","596921761","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","696309712","vn168-1.com/",1,
+r13,0,"^userNumber$","150697863","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","727592747","vesovn.cc/",1,
@@ -6531,7 +6531,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","930642057","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6577,7 +6577,7 @@
 r24,0,"^userNumber$","139265170","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","641363959","vn168-1.com/",1,
+r13,0,"^userNumber$","269256904","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","710687045","vesovn.cc/",1,
@@ -6586,7 +6586,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","276973434","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6632,7 +6632,7 @@
 r24,0,"^userNumber$","503466447","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","961585446","vn168-1.com/",1,
+r13,0,"^userNumber$","784989238","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","201957413","vesovn.cc/",1,
@@ -6641,7 +6641,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","399173808","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6687,7 +6687,7 @@
 r24,0,"^userNumber$","328200270","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","204053839","vn168-1.com/",1,
+r13,0,"^userNumber$","491246589","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","797096125","vesovn.cc/",1,
@@ -6696,7 +6696,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","889362602","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6742,7 +6742,7 @@
 r24,0,"^userNumber$","644303525","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","480646604","vn168-1.com/",1,
+r13,0,"^userNumber$","613470368","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","576125430","vesovn.cc/",1,
@@ -6751,7 +6751,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","594865413","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6797,7 +6797,7 @@
 r24,0,"^userNumber$","384666062","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","554757210","vn168-1.com/",1,
+r13,0,"^userNumber$","932860515","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","469681310","vesovn.cc/",1,
@@ -6806,7 +6806,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","777821912","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6852,7 +6852,7 @@
 r24,0,"^userNumber$","616083195","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","832816127","vn168-1.com/",1,
+r13,0,"^userNumber$","826652801","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","154222938","vesovn.cc/",1,
@@ -6861,7 +6861,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","616599773","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6907,7 +6907,7 @@
 r24,0,"^userNumber$","807851362","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","375222878","vn168-1.com/",1,
+r13,0,"^userNumber$","954815492","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","832015983","vesovn.cc/",1,
@@ -6916,7 +6916,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","376802997","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -6962,7 +6962,7 @@
 r24,0,"^userNumber$","775348772","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","243285415","vn168-1.com/",1,
+r13,0,"^userNumber$","911064258","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","353739732","vesovn.cc/",1,
@@ -6971,7 +6971,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","596175379","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7017,7 +7017,7 @@
 r24,0,"^userNumber$","487663547","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","324618593","vn168-1.com/",1,
+r13,0,"^userNumber$","160038372","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","835179242","vesovn.cc/",1,
@@ -7026,7 +7026,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","160760526","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7072,7 +7072,7 @@
 r24,0,"^userNumber$","393226889","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","655683102","vn168-1.com/",1,
+r13,0,"^userNumber$","288072583","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","701722131","vesovn.cc/",1,
@@ -7081,7 +7081,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","506082277","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7127,7 +7127,7 @@
 r24,0,"^userNumber$","389646664","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","496539344","vn168-1.com/",1,
+r13,0,"^userNumber$","524636275","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","782743272","vesovn.cc/",1,
@@ -7136,7 +7136,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","740804527","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7182,7 +7182,7 @@
 r24,0,"^userNumber$","717442311","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","261598098","vn168-1.com/",1,
+r13,0,"^userNumber$","723043464","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","207728322","vesovn.cc/",1,
@@ -7191,7 +7191,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","152812215","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7237,7 +7237,7 @@
 r24,0,"^userNumber$","232725009","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","297073690","vn168-1.com/",1,
+r13,0,"^userNumber$","551442133","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","991322672","vesovn.cc/",1,
@@ -7246,7 +7246,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","825883360","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7292,7 +7292,7 @@
 r24,0,"^userNumber$","664064928","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","233373965","vn168-1.com/",1,
+r13,0,"^userNumber$","647210927","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","281568748","vesovn.cc/",1,
@@ -7301,7 +7301,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","560963103","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7347,7 +7347,7 @@
 r24,0,"^userNumber$","375053377","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","347418818","vn168-1.com/",1,
+r13,0,"^userNumber$","330947604","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","608517775","vesovn.cc/",1,
@@ -7356,7 +7356,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","956870889","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7402,7 +7402,7 @@
 r24,0,"^userNumber$","641645706","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","517661730","vn168-1.com/",1,
+r13,0,"^userNumber$","528580364","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","721300290","vesovn.cc/",1,
@@ -7411,7 +7411,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","341897718","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7457,7 +7457,7 @@
 r24,0,"^userNumber$","377599364","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","279267689","vn168-1.com/",1,
+r13,0,"^userNumber$","246042846","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","856193834","vesovn.cc/",1,
@@ -7466,7 +7466,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","382723705","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7512,7 +7512,7 @@
 r24,0,"^userNumber$","614053178","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","394551300","vn168-1.com/",1,
+r13,0,"^userNumber$","737499676","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","343085137","vesovn.cc/",1,
@@ -7521,7 +7521,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","983913003","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7567,7 +7567,7 @@
 r24,0,"^userNumber$","899167809","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","881066104","vn168-1.com/",1,
+r13,0,"^userNumber$","606342232","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","345699447","vesovn.cc/",1,
@@ -7576,7 +7576,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","624213994","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7622,7 +7622,7 @@
 r24,0,"^userNumber$","540416380","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","188692296","vn168-1.com/",1,
+r13,0,"^userNumber$","953788277","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","644954051","vesovn.cc/",1,
@@ -7631,7 +7631,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","282279893","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7677,7 +7677,7 @@
 r24,0,"^userNumber$","441273299","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","378843516","vn168-1.com/",1,
+r13,0,"^userNumber$","617386163","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","526580764","vesovn.cc/",1,
@@ -7686,7 +7686,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","208641395","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7732,7 +7732,7 @@
 r24,0,"^userNumber$","187815617","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","368861090","vn168-1.com/",1,
+r13,0,"^userNumber$","545956656","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","536841983","vesovn.cc/",1,
@@ -7741,7 +7741,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","400072020","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7787,7 +7787,7 @@
 r24,0,"^userNumber$","326883956","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","787803437","vn168-1.com/",1,
+r13,0,"^userNumber$","388175378","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","346696404","vesovn.cc/",1,
@@ -7796,7 +7796,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","651608450","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7842,7 +7842,7 @@
 r24,0,"^userNumber$","516439984","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","861247883","vn168-1.com/",1,
+r13,0,"^userNumber$","745644846","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","543487737","vesovn.cc/",1,
@@ -7851,7 +7851,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","436813822","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7897,7 +7897,7 @@
 r24,0,"^userNumber$","608912073","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","355254656","vn168-1.com/",1,
+r13,0,"^userNumber$","946380558","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","968857378","vesovn.cc/",1,
@@ -7906,7 +7906,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","638751691","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -7952,7 +7952,7 @@
 r24,0,"^userNumber$","923441507","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","757968824","vn168-1.com/",1,
+r13,0,"^userNumber$","582405384","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","312704527","vesovn.cc/",1,
@@ -7961,7 +7961,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","517927726","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8007,7 +8007,7 @@
 r24,0,"^userNumber$","154949092","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","250694248","vn168-1.com/",1,
+r13,0,"^userNumber$","433793444","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","486370529","vesovn.cc/",1,
@@ -8016,7 +8016,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","442260203","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8062,7 +8062,7 @@
 r24,0,"^userNumber$","483471223","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","324045866","vn168-1.com/",1,
+r13,0,"^userNumber$","467477450","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","634450730","vesovn.cc/",1,
@@ -8071,7 +8071,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","231697402","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8117,7 +8117,7 @@
 r24,0,"^userNumber$","195001786","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","311065017","vn168-1.com/",1,
+r13,0,"^userNumber$","167541966","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","439751059","vesovn.cc/",1,
@@ -8126,7 +8126,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","440092587","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8172,7 +8172,7 @@
 r24,0,"^userNumber$","615362818","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","683096572","vn168-1.com/",1,
+r13,0,"^userNumber$","455133648","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","658155311","vesovn.cc/",1,
@@ -8181,7 +8181,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","729386348","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8227,7 +8227,7 @@
 r24,0,"^userNumber$","413640713","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","631770816","vn168-1.com/",1,
+r13,0,"^userNumber$","628232426","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","542344984","vesovn.cc/",1,
@@ -8236,7 +8236,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","805472513","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8282,7 +8282,7 @@
 r24,0,"^userNumber$","468446543","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","975662774","vn168-1.com/",1,
+r13,0,"^userNumber$","626432488","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","792821335","vesovn.cc/",1,
@@ -8291,7 +8291,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","701764873","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8337,7 +8337,7 @@
 r24,0,"^userNumber$","273443924","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","711978315","vn168-1.com/",1,
+r13,0,"^userNumber$","741348351","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","938954281","vesovn.cc/",1,
@@ -8346,7 +8346,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","240955781","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8392,7 +8392,7 @@
 r24,0,"^userNumber$","460786912","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","663124502","vn168-1.com/",1,
+r13,0,"^userNumber$","417666210","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","760168992","vesovn.cc/",1,
@@ -8401,7 +8401,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","776776454","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8447,7 +8447,7 @@
 r24,0,"^userNumber$","632110685","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","557208765","vn168-1.com/",1,
+r13,0,"^userNumber$","744764848","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","334083312","vesovn.cc/",1,
@@ -8456,7 +8456,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","355010419","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8502,7 +8502,7 @@
 r24,0,"^userNumber$","531388535","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","981475380","vn168-1.com/",1,
+r13,0,"^userNumber$","919913264","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","696385974","vesovn.cc/",1,
@@ -8511,7 +8511,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","298592345","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8557,7 +8557,7 @@
 r24,0,"^userNumber$","167554775","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","690484925","vn168-1.com/",1,
+r13,0,"^userNumber$","799974753","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","614654962","vesovn.cc/",1,
@@ -8566,7 +8566,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","854536046","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8612,7 +8612,7 @@
 r24,0,"^userNumber$","852472068","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","222633134","vn168-1.com/",1,
+r13,0,"^userNumber$","364001093","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","892554297","vesovn.cc/",1,
@@ -8621,7 +8621,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","334143268","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8667,7 +8667,7 @@
 r24,0,"^userNumber$","196199736","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","627604304","vn168-1.com/",1,
+r13,0,"^userNumber$","471625199","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","362547519","vesovn.cc/",1,
@@ -8676,7 +8676,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","491738706","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8722,7 +8722,7 @@
 r24,0,"^userNumber$","285768534","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","662292144","vn168-1.com/",1,
+r13,0,"^userNumber$","292311119","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","924511914","vesovn.cc/",1,
@@ -8731,7 +8731,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","231776950","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8777,7 +8777,7 @@
 r24,0,"^userNumber$","271567810","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","359716219","vn168-1.com/",1,
+r13,0,"^userNumber$","836076033","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","985929689","vesovn.cc/",1,
@@ -8786,7 +8786,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","398727567","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8832,7 +8832,7 @@
 r24,0,"^userNumber$","405112455","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","924574784","vn168-1.com/",1,
+r13,0,"^userNumber$","490109747","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","746212971","vesovn.cc/",1,
@@ -8841,7 +8841,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","986476176","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8887,7 +8887,7 @@
 r24,0,"^userNumber$","275616116","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","765099804","vn168-1.com/",1,
+r13,0,"^userNumber$","921195481","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","278271013","vesovn.cc/",1,
@@ -8896,7 +8896,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","878004085","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8942,7 +8942,7 @@
 r24,0,"^userNumber$","329249812","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","306325338","vn168-1.com/",1,
+r13,0,"^userNumber$","192139836","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","950753229","vesovn.cc/",1,
@@ -8951,7 +8951,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","975035302","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -8997,7 +8997,7 @@
 r24,0,"^userNumber$","926105833","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","552463717","vn168-1.com/",1,
+r13,0,"^userNumber$","798902097","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","479993012","vesovn.cc/",1,
@@ -9006,7 +9006,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","326568841","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9052,7 +9052,7 @@
 r24,0,"^userNumber$","588189707","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","800908589","vn168-1.com/",1,
+r13,0,"^userNumber$","163286551","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","541041881","vesovn.cc/",1,
@@ -9061,7 +9061,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","421240848","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9107,7 +9107,7 @@
 r24,0,"^userNumber$","317683863","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","244694003","vn168-1.com/",1,
+r13,0,"^userNumber$","724216931","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","186318698","vesovn.cc/",1,
@@ -9116,7 +9116,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","704461185","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9162,7 +9162,7 @@
 r24,0,"^userNumber$","916436357","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","222022240","vn168-1.com/",1,
+r13,0,"^userNumber$","924022637","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","791607556","vesovn.cc/",1,
@@ -9171,7 +9171,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","968941317","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9217,7 +9217,7 @@
 r24,0,"^userNumber$","570956762","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","227577942","vn168-1.com/",1,
+r13,0,"^userNumber$","306648688","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","211496911","vesovn.cc/",1,
@@ -9226,7 +9226,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","611178783","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9272,7 +9272,7 @@
 r24,0,"^userNumber$","818182576","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","794290560","vn168-1.com/",1,
+r13,0,"^userNumber$","225828775","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","503194580","vesovn.cc/",1,
@@ -9281,7 +9281,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","671761856","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9327,7 +9327,7 @@
 r24,0,"^userNumber$","730735094","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","964885496","vn168-1.com/",1,
+r13,0,"^userNumber$","614545458","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","599151625","vesovn.cc/",1,
@@ -9336,7 +9336,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","137716345","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9382,7 +9382,7 @@
 r24,0,"^userNumber$","921396716","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","725142127","vn168-1.com/",1,
+r13,0,"^userNumber$","410989072","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","936641160","vesovn.cc/",1,
@@ -9391,7 +9391,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","757851838","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9437,7 +9437,7 @@
 r24,0,"^userNumber$","816022598","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","863218332","vn168-1.com/",1,
+r13,0,"^userNumber$","111898062","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","526743178","vesovn.cc/",1,
@@ -9446,7 +9446,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","597255187","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9492,7 +9492,7 @@
 r24,0,"^userNumber$","259728137","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","935889188","vn168-1.com/",1,
+r13,0,"^userNumber$","783312700","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","851382136","vesovn.cc/",1,
@@ -9501,7 +9501,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","416063074","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9547,7 +9547,7 @@
 r24,0,"^userNumber$","272747479","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","603943938","vn168-1.com/",1,
+r13,0,"^userNumber$","240697716","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","334050628","vesovn.cc/",1,
@@ -9556,7 +9556,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","230391219","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9602,7 +9602,7 @@
 r24,0,"^userNumber$","478310345","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","212666579","vn168-1.com/",1,
+r13,0,"^userNumber$","909100789","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","911063207","vesovn.cc/",1,
@@ -9611,7 +9611,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","143187335","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9657,7 +9657,7 @@
 r24,0,"^userNumber$","326101743","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","261460635","vn168-1.com/",1,
+r13,0,"^userNumber$","968288627","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","678898482","vesovn.cc/",1,
@@ -9666,7 +9666,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","882769273","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9712,7 +9712,7 @@
 r24,0,"^userNumber$","961067530","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","901931696","vn168-1.com/",1,
+r13,0,"^userNumber$","379294431","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","781202310","vesovn.cc/",1,
@@ -9721,7 +9721,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","304392384","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9767,7 +9767,7 @@
 r24,0,"^userNumber$","676472883","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","871471582","vn168-1.com/",1,
+r13,0,"^userNumber$","910052516","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","939000103","vesovn.cc/",1,
@@ -9776,7 +9776,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","718438658","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9822,7 +9822,7 @@
 r24,0,"^userNumber$","986754979","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","851999507","vn168-1.com/",1,
+r13,0,"^userNumber$","470765959","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","801675724","vesovn.cc/",1,
@@ -9831,7 +9831,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","418741182","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9877,7 +9877,7 @@
 r24,0,"^userNumber$","353726733","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","210469587","vn168-1.com/",1,
+r13,0,"^userNumber$","418948603","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","686524445","vesovn.cc/",1,
@@ -9886,7 +9886,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","362719945","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9932,7 +9932,7 @@
 r24,0,"^userNumber$","523537047","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","314676792","vn168-1.com/",1,
+r13,0,"^userNumber$","670937130","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","805543703","vesovn.cc/",1,
@@ -9941,7 +9941,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","508273977","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -9987,7 +9987,7 @@
 r24,0,"^userNumber$","569054752","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","433841220","vn168-1.com/",1,
+r13,0,"^userNumber$","746745832","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","149592206","vesovn.cc/",1,
@@ -9996,7 +9996,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","634882348","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10042,7 +10042,7 @@
 r24,0,"^userNumber$","922445379","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","373113718","vn168-1.com/",1,
+r13,0,"^userNumber$","679664322","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","466616769","vesovn.cc/",1,
@@ -10051,7 +10051,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","376087272","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10097,7 +10097,7 @@
 r24,0,"^userNumber$","187114333","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","722145517","vn168-1.com/",1,
+r13,0,"^userNumber$","538513299","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","856608621","vesovn.cc/",1,
@@ -10106,7 +10106,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","362817124","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10152,7 +10152,7 @@
 r24,0,"^userNumber$","943025477","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","459932718","vn168-1.com/",1,
+r13,0,"^userNumber$","627184993","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","485600469","vesovn.cc/",1,
@@ -10161,7 +10161,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","486884297","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10207,7 +10207,7 @@
 r24,0,"^userNumber$","167921427","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","266575872","vn168-1.com/",1,
+r13,0,"^userNumber$","769471783","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","201893269","vesovn.cc/",1,
@@ -10216,7 +10216,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","534604250","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10262,7 +10262,7 @@
 r24,0,"^userNumber$","539912771","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","327169948","vn168-1.com/",1,
+r13,0,"^userNumber$","378989836","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","153722500","vesovn.cc/",1,
@@ -10271,7 +10271,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","418329459","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10317,7 +10317,7 @@
 r24,0,"^userNumber$","242968817","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","973744797","vn168-1.com/",1,
+r13,0,"^userNumber$","755163592","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","748193839","vesovn.cc/",1,
@@ -10326,7 +10326,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","614749328","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10372,7 +10372,7 @@
 r24,0,"^userNumber$","420574537","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","982996814","vn168-1.com/",1,
+r13,0,"^userNumber$","539332737","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","672738540","vesovn.cc/",1,
@@ -10381,7 +10381,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","575053266","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10427,7 +10427,7 @@
 r24,0,"^userNumber$","403227201","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","722325913","vn168-1.com/",1,
+r13,0,"^userNumber$","115019344","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","715243452","vesovn.cc/",1,
@@ -10436,7 +10436,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","684698672","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10482,7 +10482,7 @@
 r24,0,"^userNumber$","221323194","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","412112497","vn168-1.com/",1,
+r13,0,"^userNumber$","563502179","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","869791353","vesovn.cc/",1,
@@ -10491,7 +10491,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","687275940","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10537,7 +10537,7 @@
 r24,0,"^userNumber$","647596344","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","298118831","vn168-1.com/",1,
+r13,0,"^userNumber$","890408377","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","369399547","vesovn.cc/",1,
@@ -10546,7 +10546,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","120697007","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10592,7 +10592,7 @@
 r24,0,"^userNumber$","246893630","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","820205362","vn168-1.com/",1,
+r13,0,"^userNumber$","763180449","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","944338487","vesovn.cc/",1,
@@ -10601,7 +10601,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","522367302","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10647,7 +10647,7 @@
 r24,0,"^userNumber$","321369674","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","277578252","vn168-1.com/",1,
+r13,0,"^userNumber$","714104089","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","351309602","vesovn.cc/",1,
@@ -10656,7 +10656,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","162586233","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10702,7 +10702,7 @@
 r24,0,"^userNumber$","460500526","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","841614189","vn168-1.com/",1,
+r13,0,"^userNumber$","526886055","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","807537919","vesovn.cc/",1,
@@ -10711,7 +10711,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","592629528","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10757,7 +10757,7 @@
 r24,0,"^userNumber$","969102781","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","922251828","vn168-1.com/",1,
+r13,0,"^userNumber$","926728836","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","636806288","vesovn.cc/",1,
@@ -10766,7 +10766,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","167426827","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10812,7 +10812,7 @@
 r24,0,"^userNumber$","978454691","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","568594453","vn168-1.com/",1,
+r13,0,"^userNumber$","213525497","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","926600486","vesovn.cc/",1,
@@ -10821,7 +10821,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","443578764","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10867,7 +10867,7 @@
 r24,0,"^userNumber$","749386853","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","179044988","vn168-1.com/",1,
+r13,0,"^userNumber$","834561415","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","738133818","vesovn.cc/",1,
@@ -10876,7 +10876,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","752865258","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10922,7 +10922,7 @@
 r24,0,"^userNumber$","860432523","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","248500475","vn168-1.com/",1,
+r13,0,"^userNumber$","193589767","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","994597063","vesovn.cc/",1,
@@ -10931,7 +10931,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","309735419","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -10977,7 +10977,7 @@
 r24,0,"^userNumber$","416428964","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","758811684","vn168-1.com/",1,
+r13,0,"^userNumber$","635599065","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","443618296","vesovn.cc/",1,
@@ -10986,7 +10986,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","212976176","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -11032,7 +11032,7 @@
 r24,0,"^userNumber$","250411995","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","135930122","vn168-1.com/",1,
+r13,0,"^userNumber$","538861624","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","321894015","vesovn.cc/",1,
@@ -11041,7 +11041,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","999034086","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -11087,7 +11087,7 @@
 r24,0,"^userNumber$","910686601","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","162935556","vn168-1.com/",1,
+r13,0,"^userNumber$","154362856","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","331603228","vesovn.cc/",1,
@@ -11096,7 +11096,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","621551743","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -11142,7 +11142,7 @@
 r24,0,"^userNumber$","281873191","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","156316543","vn168-1.com/",1,
+r13,0,"^userNumber$","540878233","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","869279297","vesovn.cc/",1,
@@ -11151,7 +11151,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","795935293","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -11197,7 +11197,7 @@
 r24,0,"^userNumber$","879337608","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","521574813","vn168-1.com/",1,
+r13,0,"^userNumber$","293014823","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","548286313","vesovn.cc/",1,
@@ -11206,7 +11206,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","526054262","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -11252,7 +11252,7 @@
 r24,0,"^userNumber$","873332683","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","625345002","vn168-1.com/",1,
+r13,0,"^userNumber$","950162032","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","822488712","vesovn.cc/",1,
@@ -11261,7 +11261,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","454561605","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -11307,7 +11307,7 @@
 r24,0,"^userNumber$","555285930","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","289240459","vn168-1.com/",1,
+r13,0,"^userNumber$","190980380","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","792993212","vesovn.cc/",1,
@@ -11316,7 +11316,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","639588554","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -11362,7 +11362,7 @@
 r24,0,"^userNumber$","118787085","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","178570007","vn168-1.com/",1,
+r13,0,"^userNumber$","243397233","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","832426229","vesovn.cc/",1,
@@ -11371,7 +11371,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","331305945","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -11417,7 +11417,7 @@
 r24,0,"^userNumber$","339450127","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","540619679","vn168-1.com/",1,
+r13,0,"^userNumber$","165392066","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","826970112","vesovn.cc/",1,
@@ -11426,7 +11426,7 @@
 r19,0,"^userNumber$","0","82vn.com/",1,
 r28,1,"\[data-v-b677e826\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
 r29,1,"\[data-v-c0d4b9dc\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","82vn.com/",1,
-r22,0,"^userNumber$","976516432","66club.com/",1,
+r22,0,"^userNumber$","0","66club.com/",1,
 r21,1,"\[data-v-ce756f6e\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 r23,1,"\[data-v-ebe6b156\] &gt; div &gt; input\[data-v-3059f33c\]","GiaMinh123","66club.com/",1,
 ### AUTOFILL OPTIONS ###,,,,,,
@@ -11472,7 +11472,7 @@
 r24,0,"^userNumber$","744609261","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","599481325","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -11527,7 +11527,7 @@
 r24,0,"^userNumber$","839148480","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","267141540","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -11582,7 +11582,7 @@
 r24,0,"^userNumber$","687858237","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","465203145","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -11637,7 +11637,7 @@
 r24,0,"^userNumber$","746199704","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","650719698","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -11692,7 +11692,7 @@
 r24,0,"^userNumber$","714650901","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","366114870","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -11747,7 +11747,7 @@
 r24,0,"^userNumber$","271708760","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","236714154","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -11802,7 +11802,7 @@
 r24,0,"^userNumber$","140042855","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","334146324","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -11857,7 +11857,7 @@
 r24,0,"^userNumber$","368103612","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","432447570","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -11912,7 +11912,7 @@
 r24,0,"^userNumber$","874102353","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","594513227","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -11967,7 +11967,7 @@
 r24,0,"^userNumber$","189806831","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","366658889","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12022,7 +12022,7 @@
 r24,0,"^userNumber$","898511925","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","522246218","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12077,7 +12077,7 @@
 r24,0,"^userNumber$","452188929","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","120847379","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12132,7 +12132,7 @@
 r24,0,"^userNumber$","935441019","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","963939603","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12187,7 +12187,7 @@
 r24,0,"^userNumber$","505622387","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","688098825","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12242,7 +12242,7 @@
 r24,0,"^userNumber$","149789269","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","605188504","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12297,7 +12297,7 @@
 r24,0,"^userNumber$","180271604","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","996710996","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12352,7 +12352,7 @@
 r24,0,"^userNumber$","812315839","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","444462088","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12407,7 +12407,7 @@
 r24,0,"^userNumber$","719600149","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","336467542","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12462,7 +12462,7 @@
 r24,0,"^userNumber$","145631611","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","741795447","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12517,7 +12517,7 @@
 r24,0,"^userNumber$","946291216","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","814841615","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12572,7 +12572,7 @@
 r24,0,"^userNumber$","906111133","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","591677444","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12627,7 +12627,7 @@
 r24,0,"^userNumber$","265336896","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","601694245","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12682,7 +12682,7 @@
 r24,0,"^userNumber$","395284955","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","583765901","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12737,7 +12737,7 @@
 r24,0,"^userNumber$","130270458","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","649895099","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12792,7 +12792,7 @@
 r24,0,"^userNumber$","843568406","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","769689053","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12847,7 +12847,7 @@
 r24,0,"^userNumber$","395469319","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","775356135","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12902,7 +12902,7 @@
 r24,0,"^userNumber$","177139120","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","325759583","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -12957,7 +12957,7 @@
 r24,0,"^userNumber$","599423606","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","204512755","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13012,7 +13012,7 @@
 r24,0,"^userNumber$","560106531","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","935937920","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13067,7 +13067,7 @@
 r24,0,"^userNumber$","121420153","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","558822749","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13122,7 +13122,7 @@
 r24,0,"^userNumber$","245834078","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","576734170","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13177,7 +13177,7 @@
 r24,0,"^userNumber$","639636304","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","200106712","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13232,7 +13232,7 @@
 r24,0,"^userNumber$","900473983","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","584159791","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13287,7 +13287,7 @@
 r24,0,"^userNumber$","285370899","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","321590346","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13342,7 +13342,7 @@
 r24,0,"^userNumber$","155665379","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","987783161","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13397,7 +13397,7 @@
 r24,0,"^userNumber$","908367191","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","176388260","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13452,7 +13452,7 @@
 r24,0,"^userNumber$","841974447","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","209970117","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13507,7 +13507,7 @@
 r24,0,"^userNumber$","211809220","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","607511484","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13562,7 +13562,7 @@
 r24,0,"^userNumber$","330075083","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","742730658","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13617,7 +13617,7 @@
 r24,0,"^userNumber$","420899818","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","537014829","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13672,7 +13672,7 @@
 r24,0,"^userNumber$","407299416","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","459585880","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13727,7 +13727,7 @@
 r24,0,"^userNumber$","236906134","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","534020573","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13782,7 +13782,7 @@
 r24,0,"^userNumber$","353691212","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","883189133","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13837,7 +13837,7 @@
 r24,0,"^userNumber$","289865931","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","995570510","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13892,7 +13892,7 @@
 r24,0,"^userNumber$","183725916","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","168200129","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -13947,7 +13947,7 @@
 r24,0,"^userNumber$","908505000","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","671296654","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14002,7 +14002,7 @@
 r24,0,"^userNumber$","168900707","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","777461091","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14057,7 +14057,7 @@
 r24,0,"^userNumber$","216824428","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","365158486","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14112,7 +14112,7 @@
 r24,0,"^userNumber$","738100123","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","901642996","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14167,7 +14167,7 @@
 r24,0,"^userNumber$","980784818","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","291256110","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14222,7 +14222,7 @@
 r24,0,"^userNumber$","410807906","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","852560851","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14277,7 +14277,7 @@
 r24,0,"^userNumber$","905656223","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","451723653","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14332,7 +14332,7 @@
 r24,0,"^userNumber$","599148076","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","383192441","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14387,7 +14387,7 @@
 r24,0,"^userNumber$","639881871","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","206996776","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14442,7 +14442,7 @@
 r24,0,"^userNumber$","120494644","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","768528204","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14497,7 +14497,7 @@
 r24,0,"^userNumber$","908719915","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","544730432","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14552,7 +14552,7 @@
 r24,0,"^userNumber$","978828987","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","761182439","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14607,7 +14607,7 @@
 r24,0,"^userNumber$","411263058","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","781822412","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14662,7 +14662,7 @@
 r24,0,"^userNumber$","280115443","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","968546760","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14717,7 +14717,7 @@
 r24,0,"^userNumber$","855108348","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","871217030","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14772,7 +14772,7 @@
 r24,0,"^userNumber$","215359844","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","274618725","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14827,7 +14827,7 @@
 r24,0,"^userNumber$","571635318","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","962149676","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14882,7 +14882,7 @@
 r24,0,"^userNumber$","655768290","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","431608179","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14937,7 +14937,7 @@
 r24,0,"^userNumber$","839409480","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","501642846","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -14992,7 +14992,7 @@
 r24,0,"^userNumber$","315999714","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","725575286","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15047,7 +15047,7 @@
 r24,0,"^userNumber$","621162110","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","602662458","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15102,7 +15102,7 @@
 r24,0,"^userNumber$","147437122","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","264359854","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15157,7 +15157,7 @@
 r24,0,"^userNumber$","832066209","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","235008613","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15212,7 +15212,7 @@
 r24,0,"^userNumber$","859740662","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","268706312","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15267,7 +15267,7 @@
 r24,0,"^userNumber$","393374537","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","905029767","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15322,7 +15322,7 @@
 r24,0,"^userNumber$","194259191","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","384224691","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15377,7 +15377,7 @@
 r24,0,"^userNumber$","144596852","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","835346625","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15432,7 +15432,7 @@
 r24,0,"^userNumber$","692266152","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","268660961","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15487,7 +15487,7 @@
 r24,0,"^userNumber$","588623559","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","705565769","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15542,7 +15542,7 @@
 r24,0,"^userNumber$","192037149","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","300222084","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15597,7 +15597,7 @@
 r24,0,"^userNumber$","614509858","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","752963023","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15652,7 +15652,7 @@
 r24,0,"^userNumber$","974313589","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","799971712","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15707,7 +15707,7 @@
 r24,0,"^userNumber$","969612906","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","511273360","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15762,7 +15762,7 @@
 r24,0,"^userNumber$","764294790","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","446703899","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15817,7 +15817,7 @@
 r24,0,"^userNumber$","789198715","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","697321588","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15872,7 +15872,7 @@
 r24,0,"^userNumber$","305296356","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","659994961","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15927,7 +15927,7 @@
 r24,0,"^userNumber$","435349737","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","931108079","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -15982,7 +15982,7 @@
 r24,0,"^userNumber$","245033129","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","112892588","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16037,7 +16037,7 @@
 r24,0,"^userNumber$","844623908","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","911964918","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16092,7 +16092,7 @@
 r24,0,"^userNumber$","558096432","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","755933749","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16147,7 +16147,7 @@
 r24,0,"^userNumber$","524046289","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","146695400","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16202,7 +16202,7 @@
 r24,0,"^userNumber$","804516410","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","848782766","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16257,7 +16257,7 @@
 r24,0,"^userNumber$","839866460","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","957598041","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16312,7 +16312,7 @@
 r24,0,"^userNumber$","707249830","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","189645495","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16367,7 +16367,7 @@
 r24,0,"^userNumber$","690444272","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","314129865","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16422,7 +16422,7 @@
 r24,0,"^userNumber$","834256934","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","537862855","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16477,7 +16477,7 @@
 r24,0,"^userNumber$","787904197","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","348522584","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16532,7 +16532,7 @@
 r24,0,"^userNumber$","599886522","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","743278705","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16587,7 +16587,7 @@
 r24,0,"^userNumber$","904086839","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","396992047","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16642,7 +16642,7 @@
 r24,0,"^userNumber$","525369037","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","887009339","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16697,7 +16697,7 @@
 r24,0,"^userNumber$","867451393","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","398893540","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16752,7 +16752,7 @@
 r24,0,"^userNumber$","516991801","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","875900383","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16807,7 +16807,7 @@
 r24,0,"^userNumber$","384435288","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","233669971","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16862,7 +16862,7 @@
 r24,0,"^userNumber$","298376448","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","560469145","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16917,7 +16917,7 @@
 r24,0,"^userNumber$","694941103","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","896555958","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -16972,7 +16972,7 @@
 r24,0,"^userNumber$","738891930","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","776171363","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17027,7 +17027,7 @@
 r24,0,"^userNumber$","479588076","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","528356971","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17082,7 +17082,7 @@
 r24,0,"^userNumber$","248352748","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","466962937","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17137,7 +17137,7 @@
 r24,0,"^userNumber$","915756895","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","844614665","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17192,7 +17192,7 @@
 r24,0,"^userNumber$","674625205","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","812134164","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17247,7 +17247,7 @@
 r24,0,"^userNumber$","620044121","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","813604653","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17302,7 +17302,7 @@
 r24,0,"^userNumber$","580527467","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","574394189","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17357,7 +17357,7 @@
 r24,0,"^userNumber$","174483764","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","716618985","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17412,7 +17412,7 @@
 r24,0,"^userNumber$","396218757","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","876296028","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17467,7 +17467,7 @@
 r24,0,"^userNumber$","384606527","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","263038823","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17522,7 +17522,7 @@
 r24,0,"^userNumber$","819733673","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","408766585","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17577,7 +17577,7 @@
 r24,0,"^userNumber$","276315052","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","904751558","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17632,7 +17632,7 @@
 r24,0,"^userNumber$","237894704","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","753529618","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17687,7 +17687,7 @@
 r24,0,"^userNumber$","506202781","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","758019660","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17742,7 +17742,7 @@
 r24,0,"^userNumber$","279775807","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","981585978","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17797,7 +17797,7 @@
 r24,0,"^userNumber$","660150579","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","857250991","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17852,7 +17852,7 @@
 r24,0,"^userNumber$","491496742","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","851988048","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17907,7 +17907,7 @@
 r24,0,"^userNumber$","647528263","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","498312655","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -17962,7 +17962,7 @@
 r24,0,"^userNumber$","215192023","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","283252428","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18017,7 +18017,7 @@
 r24,0,"^userNumber$","971370825","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","912581859","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18072,7 +18072,7 @@
 r24,0,"^userNumber$","912269844","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","433237396","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18127,7 +18127,7 @@
 r24,0,"^userNumber$","558941090","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","360898686","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18182,7 +18182,7 @@
 r24,0,"^userNumber$","222281182","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","789843570","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18237,7 +18237,7 @@
 r24,0,"^userNumber$","854251916","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","265818119","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18292,7 +18292,7 @@
 r24,0,"^userNumber$","782921025","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","190483854","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18347,7 +18347,7 @@
 r24,0,"^userNumber$","967074212","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","597336901","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18402,7 +18402,7 @@
 r24,0,"^userNumber$","556834689","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","768363914","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18457,7 +18457,7 @@
 r24,0,"^userNumber$","651598007","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","958434240","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18512,7 +18512,7 @@
 r24,0,"^userNumber$","711618529","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","319779091","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18567,7 +18567,7 @@
 r24,0,"^userNumber$","520472031","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","540822742","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18622,7 +18622,7 @@
 r24,0,"^userNumber$","422528057","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","197653554","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18677,7 +18677,7 @@
 r24,0,"^userNumber$","801874061","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","821761355","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18732,7 +18732,7 @@
 r24,0,"^userNumber$","824221360","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","997317336","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18787,7 +18787,7 @@
 r24,0,"^userNumber$","247899498","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","769257506","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18842,7 +18842,7 @@
 r24,0,"^userNumber$","642434568","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","848711017","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18897,7 +18897,7 @@
 r24,0,"^userNumber$","478462598","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","815650204","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -18952,7 +18952,7 @@
 r24,0,"^userNumber$","550093474","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","749721512","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19007,7 +19007,7 @@
 r24,0,"^userNumber$","697645066","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","751374729","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19062,7 +19062,7 @@
 r24,0,"^userNumber$","734629698","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","711415584","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19117,7 +19117,7 @@
 r24,0,"^userNumber$","464452491","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","631834491","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19172,7 +19172,7 @@
 r24,0,"^userNumber$","767697337","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","250223491","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19227,7 +19227,7 @@
 r24,0,"^userNumber$","777701272","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","500364499","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19282,7 +19282,7 @@
 r24,0,"^userNumber$","826917957","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","847862095","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19337,7 +19337,7 @@
 r24,0,"^userNumber$","955152952","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","998327524","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19392,7 +19392,7 @@
 r24,0,"^userNumber$","337446264","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","369650057","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19447,7 +19447,7 @@
 r24,0,"^userNumber$","418269586","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","617943905","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19502,7 +19502,7 @@
 r24,0,"^userNumber$","731998218","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","117974065","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19557,7 +19557,7 @@
 r24,0,"^userNumber$","818198857","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","271360153","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19612,7 +19612,7 @@
 r24,0,"^userNumber$","671690605","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","523799581","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19667,7 +19667,7 @@
 r24,0,"^userNumber$","862931369","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","220328808","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19722,7 +19722,7 @@
 r24,0,"^userNumber$","307335228","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","282955592","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19777,7 +19777,7 @@
 r24,0,"^userNumber$","151010307","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","857095518","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19832,7 +19832,7 @@
 r24,0,"^userNumber$","419664694","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","488135590","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19887,7 +19887,7 @@
 r24,0,"^userNumber$","885279039","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","596068763","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19942,7 +19942,7 @@
 r24,0,"^userNumber$","721400502","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","302039116","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -19997,7 +19997,7 @@
 r24,0,"^userNumber$","535264162","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","655531175","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20052,7 +20052,7 @@
 r24,0,"^userNumber$","245394337","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","118951277","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20107,7 +20107,7 @@
 r24,0,"^userNumber$","550897796","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","276436236","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20162,7 +20162,7 @@
 r24,0,"^userNumber$","531265213","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","197881657","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20217,7 +20217,7 @@
 r24,0,"^userNumber$","160072448","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","508060697","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20272,7 +20272,7 @@
 r24,0,"^userNumber$","696096862","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","827278168","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20327,7 +20327,7 @@
 r24,0,"^userNumber$","408760993","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","724235393","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20382,7 +20382,7 @@
 r24,0,"^userNumber$","348333283","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","786969037","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20437,7 +20437,7 @@
 r24,0,"^userNumber$","270583293","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","780340890","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20492,7 +20492,7 @@
 r24,0,"^userNumber$","627097204","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","197818587","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20547,7 +20547,7 @@
 r24,0,"^userNumber$","383442664","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","399845900","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20602,7 +20602,7 @@
 r24,0,"^userNumber$","603885618","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","297950266","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20657,7 +20657,7 @@
 r24,0,"^userNumber$","789363144","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","278950962","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20712,7 +20712,7 @@
 r24,0,"^userNumber$","961232010","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","830077444","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20767,7 +20767,7 @@
 r24,0,"^userNumber$","845183775","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","321825552","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20822,7 +20822,7 @@
 r24,0,"^userNumber$","754900215","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","877386598","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20877,7 +20877,7 @@
 r24,0,"^userNumber$","939847720","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","239392459","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20932,7 +20932,7 @@
 r24,0,"^userNumber$","946253285","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","969320180","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -20987,7 +20987,7 @@
 r24,0,"^userNumber$","477907797","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","403456934","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21042,7 +21042,7 @@
 r24,0,"^userNumber$","262008696","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","986740327","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21097,7 +21097,7 @@
 r24,0,"^userNumber$","319707717","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","467596882","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21152,7 +21152,7 @@
 r24,0,"^userNumber$","733909708","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","457657836","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21207,7 +21207,7 @@
 r24,0,"^userNumber$","392777088","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","816242081","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21262,7 +21262,7 @@
 r24,0,"^userNumber$","273029950","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","615434708","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21317,7 +21317,7 @@
 r24,0,"^userNumber$","573136829","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","978392549","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21372,7 +21372,7 @@
 r24,0,"^userNumber$","194046638","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","970455040","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21427,7 +21427,7 @@
 r24,0,"^userNumber$","537957269","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","406522139","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21482,7 +21482,7 @@
 r24,0,"^userNumber$","922650824","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","183602099","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21537,7 +21537,7 @@
 r24,0,"^userNumber$","540296382","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","874555895","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21592,7 +21592,7 @@
 r24,0,"^userNumber$","129209468","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","854820460","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21647,7 +21647,7 @@
 r24,0,"^userNumber$","560974915","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","772128794","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21702,7 +21702,7 @@
 r24,0,"^userNumber$","793745926","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","762476732","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21757,7 +21757,7 @@
 r24,0,"^userNumber$","174417128","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","304690628","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21812,7 +21812,7 @@
 r24,0,"^userNumber$","406161961","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","377389379","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21867,7 +21867,7 @@
 r24,0,"^userNumber$","249672675","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","881147387","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21922,7 +21922,7 @@
 r24,0,"^userNumber$","451279165","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","800284851","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -21977,7 +21977,7 @@
 r24,0,"^userNumber$","111676064","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","682795852","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22032,7 +22032,7 @@
 r24,0,"^userNumber$","288960617","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","151282937","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22087,7 +22087,7 @@
 r24,0,"^userNumber$","452938644","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","862267621","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22142,7 +22142,7 @@
 r24,0,"^userNumber$","130737048","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","462491982","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22197,7 +22197,7 @@
 r24,0,"^userNumber$","845807121","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","280336044","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22252,7 +22252,7 @@
 r24,0,"^userNumber$","498676956","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","613689771","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22307,7 +22307,7 @@
 r24,0,"^userNumber$","185338975","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","371371433","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22362,7 +22362,7 @@
 r24,0,"^userNumber$","861828121","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","532940193","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22417,7 +22417,7 @@
 r24,0,"^userNumber$","442911196","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","368465845","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22472,7 +22472,7 @@
 r24,0,"^userNumber$","237533971","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","332635055","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22527,7 +22527,7 @@
 r24,0,"^userNumber$","561622678","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","297514520","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22582,7 +22582,7 @@
 r24,0,"^userNumber$","979190451","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","354527010","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22637,7 +22637,7 @@
 r24,0,"^userNumber$","854326700","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","182680654","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22692,7 +22692,7 @@
 r24,0,"^userNumber$","489006995","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","745285846","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22747,7 +22747,7 @@
 r24,0,"^userNumber$","843352112","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","513298154","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22802,7 +22802,7 @@
 r24,0,"^userNumber$","781744006","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","736861681","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22857,7 +22857,7 @@
 r24,0,"^userNumber$","591151254","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","437893259","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22912,7 +22912,7 @@
 r24,0,"^userNumber$","673668772","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","448371078","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -22967,7 +22967,7 @@
 r24,0,"^userNumber$","432864489","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","233135115","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23022,7 +23022,7 @@
 r24,0,"^userNumber$","828888406","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","457119596","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23077,7 +23077,7 @@
 r24,0,"^userNumber$","257511903","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","272110447","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23132,7 +23132,7 @@
 r24,0,"^userNumber$","758787836","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","262857125","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23187,7 +23187,7 @@
 r24,0,"^userNumber$","897165217","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","651420249","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23242,7 +23242,7 @@
 r24,0,"^userNumber$","893863433","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","262433522","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23297,7 +23297,7 @@
 r24,0,"^userNumber$","312077149","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","897056808","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23352,7 +23352,7 @@
 r24,0,"^userNumber$","965695763","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","535471195","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23407,7 +23407,7 @@
 r24,0,"^userNumber$","712860699","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","557790016","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23462,7 +23462,7 @@
 r24,0,"^userNumber$","487819645","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","147612061","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23517,7 +23517,7 @@
 r24,0,"^userNumber$","771922167","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","884267056","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23572,7 +23572,7 @@
 r24,0,"^userNumber$","959390663","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","296782683","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23627,7 +23627,7 @@
 r24,0,"^userNumber$","392856989","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","124050977","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23682,7 +23682,7 @@
 r24,0,"^userNumber$","122486624","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","797426548","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23737,7 +23737,7 @@
 r24,0,"^userNumber$","389698737","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","248674639","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23792,7 +23792,7 @@
 r24,0,"^userNumber$","728628888","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","858226543","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23847,7 +23847,7 @@
 r24,0,"^userNumber$","764056704","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","693642169","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23902,7 +23902,7 @@
 r24,0,"^userNumber$","650332690","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","670381740","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -23957,7 +23957,7 @@
 r24,0,"^userNumber$","346346179","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","641898289","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24012,7 +24012,7 @@
 r24,0,"^userNumber$","716319429","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","865348315","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24067,7 +24067,7 @@
 r24,0,"^userNumber$","634905232","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","735225152","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24122,7 +24122,7 @@
 r24,0,"^userNumber$","553228976","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","705225584","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24177,7 +24177,7 @@
 r24,0,"^userNumber$","262864597","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","145379721","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24232,7 +24232,7 @@
 r24,0,"^userNumber$","694931006","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","842779748","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24287,7 +24287,7 @@
 r24,0,"^userNumber$","144588866","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","147169471","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24342,7 +24342,7 @@
 r24,0,"^userNumber$","610525766","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","163571746","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24397,7 +24397,7 @@
 r24,0,"^userNumber$","790400305","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","470365274","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24452,7 +24452,7 @@
 r24,0,"^userNumber$","955407413","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","868016443","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24507,7 +24507,7 @@
 r24,0,"^userNumber$","721971203","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","374874729","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24562,7 +24562,7 @@
 r24,0,"^userNumber$","187345180","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","793015179","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24617,7 +24617,7 @@
 r24,0,"^userNumber$","299178544","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","716343509","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24672,7 +24672,7 @@
 r24,0,"^userNumber$","479647991","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","529297984","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24727,7 +24727,7 @@
 r24,0,"^userNumber$","913084763","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","994710460","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24782,7 +24782,7 @@
 r24,0,"^userNumber$","999345603","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","749461292","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24837,7 +24837,7 @@
 r24,0,"^userNumber$","809214398","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","767500745","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24892,7 +24892,7 @@
 r24,0,"^userNumber$","451507089","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","646675876","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -24947,7 +24947,7 @@
 r24,0,"^userNumber$","694500415","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","971307097","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25002,7 +25002,7 @@
 r24,0,"^userNumber$","853442683","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","332841171","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25057,7 +25057,7 @@
 r24,0,"^userNumber$","289239329","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","251375885","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25112,7 +25112,7 @@
 r24,0,"^userNumber$","840605831","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","475806133","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25167,7 +25167,7 @@
 r24,0,"^userNumber$","831738188","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","486770800","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25222,7 +25222,7 @@
 r24,0,"^userNumber$","201644748","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","344724999","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25277,7 +25277,7 @@
 r24,0,"^userNumber$","350454882","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","634068507","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25332,7 +25332,7 @@
 r24,0,"^userNumber$","200368016","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","937787592","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25387,7 +25387,7 @@
 r24,0,"^userNumber$","144834379","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","848902384","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25442,7 +25442,7 @@
 r24,0,"^userNumber$","155056869","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","991797349","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25497,7 +25497,7 @@
 r24,0,"^userNumber$","178565050","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","704306470","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25552,7 +25552,7 @@
 r24,0,"^userNumber$","478809692","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","714374610","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25607,7 +25607,7 @@
 r24,0,"^userNumber$","651686578","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","399562957","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25662,7 +25662,7 @@
 r24,0,"^userNumber$","998336815","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","735720795","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25717,7 +25717,7 @@
 r24,0,"^userNumber$","614379306","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","293296176","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25772,7 +25772,7 @@
 r24,0,"^userNumber$","881063838","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","260565873","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25827,7 +25827,7 @@
 r24,0,"^userNumber$","918305266","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","452835649","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25882,7 +25882,7 @@
 r24,0,"^userNumber$","554781883","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","994254388","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25937,7 +25937,7 @@
 r24,0,"^userNumber$","387896150","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","255231392","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -25992,7 +25992,7 @@
 r24,0,"^userNumber$","757516759","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","471467252","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26047,7 +26047,7 @@
 r24,0,"^userNumber$","886941130","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","428917786","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26102,7 +26102,7 @@
 r24,0,"^userNumber$","645454705","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","575055734","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26157,7 +26157,7 @@
 r24,0,"^userNumber$","299839522","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","939064616","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26212,7 +26212,7 @@
 r24,0,"^userNumber$","231884830","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","119666681","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26267,7 +26267,7 @@
 r24,0,"^userNumber$","533785989","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","847073650","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26322,7 +26322,7 @@
 r24,0,"^userNumber$","473430054","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","283492000","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26377,7 +26377,7 @@
 r24,0,"^userNumber$","183683228","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","615652436","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26432,7 +26432,7 @@
 r24,0,"^userNumber$","829566644","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","586477187","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26487,7 +26487,7 @@
 r24,0,"^userNumber$","149785946","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","921706865","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26542,7 +26542,7 @@
 r24,0,"^userNumber$","935251143","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","844569026","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26597,7 +26597,7 @@
 r24,0,"^userNumber$","436927399","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","919004199","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26652,7 +26652,7 @@
 r24,0,"^userNumber$","940390744","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","956411261","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26707,7 +26707,7 @@
 r24,0,"^userNumber$","507723217","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","391896563","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26762,7 +26762,7 @@
 r24,0,"^userNumber$","949358144","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","338984218","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26817,7 +26817,7 @@
 r24,0,"^userNumber$","782786806","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","982759284","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26872,7 +26872,7 @@
 r24,0,"^userNumber$","551441330","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","118034039","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26927,7 +26927,7 @@
 r24,0,"^userNumber$","231674215","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","462136990","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -26982,7 +26982,7 @@
 r24,0,"^userNumber$","340035573","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","774315537","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27037,7 +27037,7 @@
 r24,0,"^userNumber$","156958050","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","714303006","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27092,7 +27092,7 @@
 r24,0,"^userNumber$","759429308","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","449239343","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27147,7 +27147,7 @@
 r24,0,"^userNumber$","654570307","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","562749750","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27202,7 +27202,7 @@
 r24,0,"^userNumber$","291988596","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","305587970","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27257,7 +27257,7 @@
 r24,0,"^userNumber$","542083921","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","549104361","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27312,7 +27312,7 @@
 r24,0,"^userNumber$","340304780","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","183221066","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27367,7 +27367,7 @@
 r24,0,"^userNumber$","224760219","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","719166426","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27422,7 +27422,7 @@
 r24,0,"^userNumber$","783886583","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","651577432","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27477,7 +27477,7 @@
 r24,0,"^userNumber$","639373340","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","955810982","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27532,7 +27532,7 @@
 r24,0,"^userNumber$","783148204","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","652975225","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27587,7 +27587,7 @@
 r24,0,"^userNumber$","436536525","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","983342708","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27642,7 +27642,7 @@
 r24,0,"^userNumber$","941331138","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","201995915","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27697,7 +27697,7 @@
 r24,0,"^userNumber$","917009164","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","585031721","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27752,7 +27752,7 @@
 r24,0,"^userNumber$","685827584","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","741508338","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27807,7 +27807,7 @@
 r24,0,"^userNumber$","423650550","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","961293293","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27862,7 +27862,7 @@
 r24,0,"^userNumber$","476267527","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","620598506","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
@@ -27917,7 +27917,7 @@
 r24,0,"^userNumber$","919593990","92lottery.club/",1,
 r26,1,"\[data-v-c16e655a\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
 r27,1,"\[data-v-93816af6\] &gt; div &gt; input\[data-v-41f52b32\]","GiaMinh123","92lottery.club/",1,
-r13,0,"^userNumber$","0","vn168-1.com/",1,
+r13,0,"^userNumber$","160467072","vn168-1.com/",1,
 r14,1,"\[data-v-ba1985c0\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r15,1,"\[data-v-b5d6270a\] &gt; div &gt; input\[data-v-2c10910c\]","GiaMinh123","vn168-1.com/",1,
 r25,0,"^userNumber$","0","vesovn.cc/",1,
